--- a/opengov/sds2011.xlsx
+++ b/opengov/sds2011.xlsx
@@ -794,10 +794,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1051,7 +1065,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="69">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1079,6 +1093,13 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1105,6 +1126,13 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -3324,10 +3352,10 @@
   <dimension ref="A1:BM54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE46" sqref="AE46"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/opengov/sds2011.xlsx
+++ b/opengov/sds2011.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="0" windowWidth="14820" windowHeight="14400" activeTab="2"/>
+    <workbookView xWindow="16640" yWindow="0" windowWidth="25600" windowHeight="14640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prevelence" sheetId="19" r:id="rId1"/>
@@ -649,7 +649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +871,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1064,6 +1070,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3355,13 +3363,13 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="58" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="85" customWidth="1"/>
     <col min="5" max="9" width="12.5" style="10" customWidth="1"/>
@@ -4219,7 +4227,7 @@
       <c r="BD7" s="49"/>
     </row>
     <row r="8" spans="1:56" ht="14" customHeight="1">
-      <c r="A8" s="48">
+      <c r="A8" s="96">
         <v>7</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -4329,7 +4337,7 @@
       <c r="AQ8" s="61"/>
     </row>
     <row r="9" spans="1:56">
-      <c r="A9" s="48">
+      <c r="A9" s="96">
         <v>8</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -4439,7 +4447,7 @@
       <c r="AQ9" s="61"/>
     </row>
     <row r="10" spans="1:56">
-      <c r="A10" s="48">
+      <c r="A10" s="96">
         <v>9</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -4549,7 +4557,7 @@
       <c r="AQ10" s="61"/>
     </row>
     <row r="11" spans="1:56">
-      <c r="A11" s="48">
+      <c r="A11" s="96">
         <v>10</v>
       </c>
       <c r="B11" s="58" t="s">
@@ -4659,7 +4667,7 @@
       <c r="AQ11" s="61"/>
     </row>
     <row r="12" spans="1:56">
-      <c r="A12" s="48">
+      <c r="A12" s="96">
         <v>11</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -4769,7 +4777,7 @@
       <c r="AQ12" s="61"/>
     </row>
     <row r="13" spans="1:56">
-      <c r="A13" s="48">
+      <c r="A13" s="96">
         <v>12</v>
       </c>
       <c r="B13" s="58" t="s">
@@ -4879,7 +4887,7 @@
       <c r="AQ13" s="61"/>
     </row>
     <row r="14" spans="1:56">
-      <c r="A14" s="48">
+      <c r="A14" s="96">
         <v>13</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -5869,7 +5877,7 @@
       <c r="AQ22" s="61"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="48">
+      <c r="A23" s="96">
         <v>22</v>
       </c>
       <c r="B23" s="58" t="s">
@@ -5979,7 +5987,7 @@
       <c r="AQ23" s="61"/>
     </row>
     <row r="24" spans="1:56">
-      <c r="A24" s="48">
+      <c r="A24" s="96">
         <v>23</v>
       </c>
       <c r="B24" s="58" t="s">
@@ -6089,7 +6097,7 @@
       <c r="AQ24" s="61"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="48">
+      <c r="A25" s="63">
         <v>24</v>
       </c>
       <c r="B25" s="58" t="s">
@@ -6199,7 +6207,7 @@
       <c r="AQ25" s="61"/>
     </row>
     <row r="26" spans="1:56">
-      <c r="A26" s="48">
+      <c r="A26" s="63">
         <v>25</v>
       </c>
       <c r="B26" s="58" t="s">
@@ -6309,7 +6317,7 @@
       <c r="AQ26" s="61"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="48">
+      <c r="A27" s="96">
         <v>26</v>
       </c>
       <c r="B27" s="58" t="s">
@@ -6419,7 +6427,7 @@
       <c r="AQ27" s="61"/>
     </row>
     <row r="28" spans="1:56" s="2" customFormat="1">
-      <c r="A28" s="49">
+      <c r="A28" s="97">
         <v>27</v>
       </c>
       <c r="B28" s="60" t="s">

--- a/opengov/sds2011.xlsx
+++ b/opengov/sds2011.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="0" windowWidth="25600" windowHeight="14640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="prevelence" sheetId="19" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="summarymatrix" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fact!$A$1:$C$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fact!$A$1:$C$155</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="181">
   <si>
     <t>metric</t>
   </si>
@@ -368,9 +368,6 @@
     <t>measurep</t>
   </si>
   <si>
-    <t>baselinep</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>p75</t>
+  </si>
+  <si>
+    <t>% of diabetes pop with HbA1c recorded</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -870,8 +870,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,23 +932,15 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -937,7 +951,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1072,8 +1085,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="91">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1108,6 +1135,17 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1141,6 +1179,17 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1442,7 +1491,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1453,13 +1502,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1474,569 +1523,569 @@
       <c r="G1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="51" t="s">
+      <c r="H1" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="46" t="s">
         <v>109</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="27">
         <v>2221</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="27">
         <v>17919</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="27">
         <v>35</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="28">
         <f>SUM(D2:F2)</f>
         <v>20175</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="49">
         <f t="shared" ref="H2:H16" si="0">G2/I2</f>
         <v>5.4993730578422287E-2</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="47">
         <v>366860</v>
       </c>
       <c r="J2" s="17">
         <v>55.566175687500007</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="24">
         <v>-4.609001654166665</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="27">
         <v>614</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="27">
         <v>4846</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="27">
         <v>33</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="28">
         <f t="shared" ref="G3:G15" si="1">SUM(D3:F3)</f>
         <v>5493</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="49">
         <f t="shared" si="0"/>
         <v>4.8666607601665635E-2</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="47">
         <v>112870</v>
       </c>
       <c r="J3" s="17">
         <v>55.60719344615385</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>-2.7004535461538461</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="27">
         <v>893</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="27">
         <v>7236</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="27">
         <v>39</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="28">
         <f t="shared" si="1"/>
         <v>8168</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="49">
         <f t="shared" si="0"/>
         <v>5.5118429043795131E-2</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="47">
         <v>148190</v>
       </c>
       <c r="J4" s="17">
         <v>55.027784740932674</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <v>-3.8202527512953344</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="27">
         <v>1969</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="27">
         <v>16164</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="27">
         <v>59</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="28">
         <f t="shared" si="1"/>
         <v>18192</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>4.9848607324391343E-2</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="47">
         <v>364945</v>
       </c>
       <c r="J5" s="17">
         <v>56.163072748344334</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="24">
         <v>-3.2001611412803546</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>1606</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>12528</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="27">
         <v>67</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="28">
         <f t="shared" si="1"/>
         <v>14201</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="49">
         <f t="shared" si="0"/>
         <v>4.8403809316054619E-2</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="47">
         <v>293386</v>
       </c>
       <c r="J6" s="17">
         <v>56.064990280323407</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="24">
         <v>-3.8520161617250697</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="27">
         <v>3053</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="27">
         <v>20902</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="27">
         <v>85</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="28">
         <f t="shared" si="1"/>
         <v>24040</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="49">
         <f t="shared" si="0"/>
         <v>4.3659874323489882E-2</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="47">
         <v>550620</v>
       </c>
       <c r="J7" s="17">
         <v>57.306753697368443</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="24">
         <v>-2.39230568859649</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="27">
         <v>6180</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <v>50005</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="27">
         <v>527</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="28">
         <f t="shared" si="1"/>
         <v>56712</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="49">
         <f t="shared" si="0"/>
         <v>4.7108076453437661E-2</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="47">
         <v>1203870</v>
       </c>
       <c r="J8" s="17">
         <v>55.868988067209798</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="24">
         <v>-4.3449574005431044</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="27">
         <v>1758</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <v>12479</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="27">
         <v>128</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="28">
         <f t="shared" si="1"/>
         <v>14365</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="49">
         <f t="shared" si="0"/>
         <v>4.6214972814721873E-2</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="47">
         <v>310830</v>
       </c>
       <c r="J9" s="17">
         <v>57.144289492753657</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="24">
         <v>-4.5762839468599044</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="27">
         <v>3513</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>24998</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="27">
         <v>118</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="28">
         <f t="shared" si="1"/>
         <v>28629</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="49">
         <f t="shared" si="0"/>
         <v>5.0898081165985452E-2</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="47">
         <v>562477</v>
       </c>
       <c r="J10" s="17">
         <v>55.802350703856774</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="24">
         <v>-4.0026567245179079</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="27">
         <v>4175</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <v>29551</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="27">
         <v>298</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="28">
         <f t="shared" si="1"/>
         <v>34024</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="49">
         <f t="shared" si="0"/>
         <v>4.0663980753211086E-2</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="47">
         <v>836711</v>
       </c>
       <c r="J11" s="17">
         <v>55.926776633064541</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>-3.2422757217741895</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="27">
         <v>120</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <v>853</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="27">
         <v>0</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="28">
         <f t="shared" si="1"/>
         <v>973</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="49">
         <f t="shared" si="0"/>
         <v>4.838388861263053E-2</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="47">
         <v>20110</v>
       </c>
       <c r="J12" s="17">
         <v>59.000222259259267</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="24">
         <v>-3.0264093703703705</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="27">
         <v>124</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="27">
         <v>871</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="27">
         <v>4</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="28">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="49">
         <f t="shared" si="0"/>
         <v>4.4598214285714283E-2</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="47">
         <v>22400</v>
       </c>
       <c r="J13" s="17">
         <v>60.220431733333349</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>-1.2161150666666667</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="27">
         <v>1864</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="27">
         <v>18104</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="27">
         <v>98</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="28">
         <f t="shared" si="1"/>
         <v>20066</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="49">
         <f t="shared" si="0"/>
         <v>4.983595808673235E-2</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="47">
         <v>402641</v>
       </c>
       <c r="J14" s="17">
         <v>56.496416473790269</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>-3.0871150322580667</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="29">
         <v>182</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="29">
         <v>1058</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="29">
         <v>1</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="30">
         <f t="shared" si="1"/>
         <v>1241</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="40">
         <f t="shared" si="0"/>
         <v>4.7384497899961818E-2</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="48">
         <v>26190</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="22">
         <v>57.991980777777776</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="25">
         <v>-6.6767360833333322</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="38">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="34">
         <f t="shared" ref="D16:I16" si="2">SUM(D2:D15)</f>
         <v>28272</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="34">
         <f t="shared" si="2"/>
         <v>217514</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="34">
         <f t="shared" si="2"/>
         <v>1492</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="36">
         <f t="shared" si="2"/>
         <v>247278</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="50">
         <f t="shared" si="0"/>
         <v>4.7352214626299766E-2</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="36">
         <f t="shared" si="2"/>
         <v>5222100</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="39"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,13 +2100,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2066,12 +2115,11 @@
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="10.83203125" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2084,1262 +2132,1647 @@
       <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D2">
         <v>2221</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>86</v>
       </c>
       <c r="D3">
         <v>614</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D4">
         <v>893</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D5">
         <v>1969</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D6">
         <v>1606</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D7">
         <v>3053</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>91</v>
       </c>
       <c r="D8">
         <v>6180</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D9">
         <v>1758</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>93</v>
       </c>
       <c r="D10">
         <v>3513</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D11">
         <v>4175</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>95</v>
       </c>
       <c r="D12">
         <v>120</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>96</v>
       </c>
       <c r="D13">
         <v>871</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D14">
         <v>1864</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+    <row r="15" spans="1:5" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="2">
         <v>182</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="42">
         <v>0.7</v>
       </c>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D16">
         <v>17919</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="41">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>86</v>
       </c>
       <c r="D17">
         <v>4846</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="41">
         <v>4.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D18">
         <v>7236</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="41">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D19">
         <v>16164</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="41">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D20">
         <v>12528</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="41">
         <v>4.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D21">
         <v>20902</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="41">
         <v>4.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>91</v>
       </c>
       <c r="D22">
         <v>50005</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="41">
         <v>3.8</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D23">
         <v>12479</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>93</v>
       </c>
       <c r="D24">
         <v>24998</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="41">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D25">
         <v>29551</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="41">
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="26" t="s">
         <v>95</v>
       </c>
       <c r="D26">
         <v>853</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="41">
         <v>4.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="26" t="s">
         <v>96</v>
       </c>
       <c r="D27">
         <v>871</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="41">
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D28">
         <v>18104</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="41">
         <v>4.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
+    <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="2">
         <v>1058</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="42">
         <v>4</v>
       </c>
-      <c r="F29" s="41"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="48" t="s">
-        <v>120</v>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="12">
-        <v>744</v>
-      </c>
-      <c r="E30" s="46">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="48" t="s">
-        <v>120</v>
+      <c r="E30" s="5">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="12">
-        <v>178</v>
-      </c>
-      <c r="E31" s="46">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="48" t="s">
-        <v>120</v>
+      <c r="E31" s="100">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="12">
-        <v>249</v>
-      </c>
-      <c r="E32" s="46">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="48" t="s">
-        <v>120</v>
+      <c r="E32" s="5">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="12">
-        <v>644</v>
-      </c>
-      <c r="E33" s="46">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="48" t="s">
-        <v>120</v>
+      <c r="E33" s="5">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="12">
-        <v>573</v>
-      </c>
-      <c r="E34" s="46">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="48" t="s">
-        <v>120</v>
+      <c r="E34" s="5">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="12">
-        <v>1317</v>
-      </c>
-      <c r="E35" s="46">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="48" t="s">
-        <v>120</v>
+      <c r="E35" s="5">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D36">
-        <v>1885</v>
-      </c>
-      <c r="E36" s="46">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="48" t="s">
-        <v>120</v>
+      <c r="E36" s="5">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D37">
-        <v>534</v>
-      </c>
-      <c r="E37" s="46">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="48" t="s">
-        <v>120</v>
+      <c r="E37" s="5">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D38">
-        <v>988</v>
-      </c>
-      <c r="E38" s="46">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="48" t="s">
-        <v>120</v>
+      <c r="E38" s="5">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D39">
-        <v>1058</v>
-      </c>
-      <c r="E39" s="46">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="48" t="s">
-        <v>120</v>
+      <c r="E39" s="5">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D40">
-        <v>40</v>
-      </c>
-      <c r="E40" s="46">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="48" t="s">
-        <v>120</v>
+      <c r="E40" s="5">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D41">
-        <v>32</v>
-      </c>
-      <c r="E41" s="46">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="48" t="s">
-        <v>120</v>
+      <c r="E41" s="5">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D42">
-        <v>759</v>
-      </c>
-      <c r="E42" s="46">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1">
-      <c r="A43" s="49" t="s">
-        <v>120</v>
+      <c r="E42" s="5">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1">
+      <c r="A43" s="98" t="s">
+        <v>180</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="2">
-        <v>70</v>
-      </c>
-      <c r="E43" s="47">
-        <v>40</v>
-      </c>
-      <c r="F43" s="41"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="48" t="s">
-        <v>120</v>
+      <c r="E43" s="37">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D44">
-        <v>2296</v>
-      </c>
-      <c r="E44" s="46">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="48" t="s">
-        <v>120</v>
+      <c r="E44" s="5">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D45">
-        <v>497</v>
-      </c>
-      <c r="E45" s="46">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="48" t="s">
-        <v>120</v>
+      <c r="E45" s="100">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D46">
-        <v>810</v>
-      </c>
-      <c r="E46" s="46">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="48" t="s">
-        <v>120</v>
+      <c r="E46" s="5">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D47">
-        <v>1928</v>
-      </c>
-      <c r="E47" s="46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="48" t="s">
-        <v>120</v>
+      <c r="E47" s="5">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D48">
-        <v>1687</v>
-      </c>
-      <c r="E48" s="46">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="48" t="s">
-        <v>120</v>
+      <c r="E48" s="5">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D49">
-        <v>3326</v>
-      </c>
-      <c r="E49" s="46">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="48" t="s">
-        <v>120</v>
+      <c r="E49" s="5">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D50">
-        <v>7325</v>
-      </c>
-      <c r="E50" s="46">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="48" t="s">
-        <v>120</v>
+      <c r="E50" s="5">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D51">
-        <v>1709</v>
-      </c>
-      <c r="E51" s="46">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="48" t="s">
-        <v>120</v>
+      <c r="E51" s="5">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D52">
-        <v>3339</v>
-      </c>
-      <c r="E52" s="46">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="48" t="s">
-        <v>120</v>
+      <c r="E52" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D53">
-        <v>3249</v>
-      </c>
-      <c r="E53" s="46">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="48" t="s">
-        <v>120</v>
+      <c r="E53" s="5">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D54">
-        <v>142</v>
-      </c>
-      <c r="E54" s="46">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="48" t="s">
-        <v>120</v>
+      <c r="E54" s="5">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D55">
-        <v>116</v>
-      </c>
-      <c r="E55" s="46">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="48" t="s">
-        <v>120</v>
+      <c r="E55" s="5">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D56">
-        <v>2568</v>
-      </c>
-      <c r="E56" s="46">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1">
-      <c r="A57" s="49" t="s">
-        <v>120</v>
+      <c r="E56" s="5">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1">
+      <c r="A57" s="98" t="s">
+        <v>180</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="37">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="12">
+        <v>744</v>
+      </c>
+      <c r="E58" s="41">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="12">
+        <v>178</v>
+      </c>
+      <c r="E59" s="41">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="12">
+        <v>249</v>
+      </c>
+      <c r="E60" s="41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="12">
+        <v>644</v>
+      </c>
+      <c r="E61" s="41">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="12">
+        <v>573</v>
+      </c>
+      <c r="E62" s="41">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="12">
+        <v>1317</v>
+      </c>
+      <c r="E63" s="41">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64">
+        <v>1885</v>
+      </c>
+      <c r="E64" s="41">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65">
+        <v>534</v>
+      </c>
+      <c r="E65" s="41">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66">
+        <v>988</v>
+      </c>
+      <c r="E66" s="41">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67">
+        <v>1058</v>
+      </c>
+      <c r="E67" s="41">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68" s="41">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69" s="41">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70">
+        <v>759</v>
+      </c>
+      <c r="E70" s="41">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1">
+      <c r="A71" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="2">
+        <v>70</v>
+      </c>
+      <c r="E71" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72">
+        <v>2296</v>
+      </c>
+      <c r="E72" s="41">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73">
+        <v>497</v>
+      </c>
+      <c r="E73" s="41">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
+        <v>810</v>
+      </c>
+      <c r="E74" s="41">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75">
+        <v>1928</v>
+      </c>
+      <c r="E75" s="41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76">
+        <v>1687</v>
+      </c>
+      <c r="E76" s="41">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
+        <v>3326</v>
+      </c>
+      <c r="E77" s="41">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78">
+        <v>7325</v>
+      </c>
+      <c r="E78" s="41">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79">
+        <v>1709</v>
+      </c>
+      <c r="E79" s="41">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80">
+        <v>3339</v>
+      </c>
+      <c r="E80" s="41">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81">
+        <v>3249</v>
+      </c>
+      <c r="E81" s="41">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82">
+        <v>142</v>
+      </c>
+      <c r="E82" s="41">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83">
+        <v>116</v>
+      </c>
+      <c r="E83" s="41">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84">
+        <v>2568</v>
+      </c>
+      <c r="E84" s="41">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="2" customFormat="1">
+      <c r="A85" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="2">
         <v>185</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E85" s="42">
         <v>18.3</v>
       </c>
-      <c r="F57" s="41"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="C58" s="28"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="C59" s="28"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="C60" s="28"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="C61" s="28"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="C62" s="28"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="C63" s="28"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="C64" s="28"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="28"/>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="28"/>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="28"/>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="28"/>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="28"/>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="28"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="28"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="28"/>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="28"/>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="28"/>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="28"/>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="28"/>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="28"/>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="28"/>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="28"/>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="28"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="C81" s="28"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="C82" s="28"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="C83" s="28"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="C84" s="28"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="C85" s="28"/>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="12"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="29"/>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="12"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="29"/>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="12"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="29"/>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="12"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="29"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="12"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="29"/>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="12"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="29"/>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="12"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="29"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="12"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="29"/>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="12"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="29"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="12"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="29"/>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="12"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="29"/>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="12"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="29"/>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="12"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="29"/>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="12"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="29"/>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="12"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="29"/>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="12"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="29"/>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="12"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="29"/>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="12"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="29"/>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="12"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="29"/>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="12"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="29"/>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="12"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="29"/>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="12"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="29"/>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="12"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="29"/>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="12"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="29"/>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="12"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="29"/>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="12"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="29"/>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="12"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="29"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="C86" s="26"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87" s="26"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="C89" s="26"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="C90" s="26"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="C91" s="26"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="C92" s="26"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="C93" s="26"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="C94" s="26"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="C95" s="26"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="C96" s="26"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="26"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="26"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="26"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="26"/>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="26"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="26"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="26"/>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="26"/>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="26"/>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="26"/>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="26"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="26"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="26"/>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="26"/>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="26"/>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="26"/>
     </row>
     <row r="113" spans="2:5">
-      <c r="B113" s="12"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="29"/>
+      <c r="C113" s="26"/>
     </row>
     <row r="114" spans="2:5">
-      <c r="C114" s="28"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="2:5">
-      <c r="C115" s="28"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" spans="2:5">
-      <c r="C116" s="28"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="2:5">
-      <c r="C117" s="28"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="2:5">
-      <c r="C118" s="28"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="2:5">
-      <c r="C119" s="28"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="2:5">
-      <c r="C120" s="28"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="2:5">
-      <c r="C121" s="28"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="2:5">
-      <c r="C122" s="28"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="2:5">
-      <c r="C123" s="28"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="2:5">
-      <c r="C124" s="28"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="2:5">
-      <c r="C125" s="28"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="2:5">
-      <c r="C126" s="28"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="2:5">
-      <c r="C127" s="28"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="12"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="12"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="12"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="12"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="12"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="12"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="12"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="12"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="12"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="12"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="12"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="12"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="12"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="12"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="C142" s="26"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="C143" s="26"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="C144" s="26"/>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="26"/>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="26"/>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="26"/>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="26"/>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="26"/>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="26"/>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="26"/>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="26"/>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="26"/>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="26"/>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3359,216 +3792,216 @@
   </sheetPr>
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="80" customWidth="1"/>
     <col min="5" max="9" width="12.5" style="10" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="48"/>
+    <col min="14" max="14" width="8.83203125" style="43"/>
     <col min="15" max="27" width="7.33203125" style="5" customWidth="1"/>
     <col min="28" max="28" width="7.33203125" style="6" customWidth="1"/>
     <col min="29" max="40" width="8" style="4" customWidth="1"/>
     <col min="41" max="41" width="8.33203125" style="4" customWidth="1"/>
-    <col min="42" max="42" width="8.33203125" style="48" customWidth="1"/>
+    <col min="42" max="42" width="8.33203125" style="43" customWidth="1"/>
     <col min="43" max="43" width="8.5" style="10" customWidth="1"/>
-    <col min="44" max="44" width="8.5" style="74" customWidth="1"/>
+    <col min="44" max="44" width="8.5" style="69" customWidth="1"/>
     <col min="45" max="54" width="8.5" style="4" customWidth="1"/>
     <col min="55" max="55" width="7.83203125" style="4" customWidth="1"/>
-    <col min="56" max="56" width="8.5" style="48" customWidth="1"/>
+    <col min="56" max="56" width="8.5" style="43" customWidth="1"/>
     <col min="66" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="3" customFormat="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB1" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE1" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG1" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH1" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ1" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK1" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL1" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM1" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN1" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO1" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP1" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ1" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR1" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS1" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT1" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU1" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV1" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW1" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX1" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY1" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ1" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA1" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB1" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC1" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD1" s="77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="7" customFormat="1" ht="14" customHeight="1">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="O1" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q1" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="R1" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="S1" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="T1" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="U1" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="V1" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="W1" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="X1" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y1" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z1" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB1" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC1" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD1" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE1" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF1" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG1" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH1" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI1" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ1" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK1" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL1" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM1" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN1" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO1" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP1" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ1" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR1" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS1" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT1" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU1" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV1" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW1" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX1" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY1" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ1" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA1" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="BB1" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="BC1" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD1" s="82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" s="7" customFormat="1" ht="14" customHeight="1">
-      <c r="A2" s="56">
-        <v>1</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>122</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="83" t="s">
-        <v>144</v>
+      <c r="D2" s="78" t="s">
+        <v>143</v>
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E33" si="0">MIN($O2:$AB2)</f>
@@ -3590,23 +4023,23 @@
         <f t="shared" ref="I2:I17" si="3">STDEV($O2:$AB2)</f>
         <v>7.7032888651964018E-2</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="72">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.05)</f>
         <v>0.5</v>
       </c>
-      <c r="K2" s="77">
+      <c r="K2" s="72">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.25)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="L2" s="77">
+      <c r="L2" s="72">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.5)</f>
         <v>0.6</v>
       </c>
-      <c r="M2" s="77">
+      <c r="M2" s="72">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.75)</f>
         <v>0.6</v>
       </c>
-      <c r="N2" s="79">
+      <c r="N2" s="74">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.95)</f>
         <v>0.66999999999999993</v>
       </c>
@@ -3664,23 +4097,23 @@
       <c r="AO2" s="7">
         <v>1864</v>
       </c>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="71"/>
-      <c r="BD2" s="56"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="66"/>
+      <c r="BD2" s="51"/>
     </row>
     <row r="3" spans="1:56" s="7" customFormat="1">
-      <c r="A3" s="56">
+      <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>122</v>
+      <c r="B3" s="52" t="s">
+        <v>121</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="83" t="s">
-        <v>144</v>
+      <c r="D3" s="78" t="s">
+        <v>143</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
@@ -3702,23 +4135,23 @@
         <f t="shared" si="3"/>
         <v>0.30318818730794395</v>
       </c>
-      <c r="J3" s="77">
+      <c r="J3" s="72">
         <f t="shared" ref="J3:J54" si="4">_xlfn.PERCENTILE.INC($O3:$AB3,0.05)</f>
         <v>2.63</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="72">
         <f t="shared" ref="K3:K54" si="5">_xlfn.PERCENTILE.INC($O3:$AB3,0.25)</f>
         <v>2.8249999999999997</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="72">
         <f>_xlfn.PERCENTILE.INC($O3:$AB3,0.5)</f>
         <v>3</v>
       </c>
-      <c r="M3" s="77">
+      <c r="M3" s="72">
         <f t="shared" ref="M3:M54" si="6">_xlfn.PERCENTILE.INC($O3:$AB3,0.75)</f>
         <v>3.3</v>
       </c>
-      <c r="N3" s="79">
+      <c r="N3" s="74">
         <f t="shared" ref="N3:N54" si="7">_xlfn.PERCENTILE.INC($O3:$AB3,0.95)</f>
         <v>3.4350000000000001</v>
       </c>
@@ -3776,23 +4209,23 @@
       <c r="AO3" s="7">
         <v>18104</v>
       </c>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="71"/>
-      <c r="BD3" s="56"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="66"/>
+      <c r="BD3" s="51"/>
     </row>
     <row r="4" spans="1:56" s="12" customFormat="1">
-      <c r="A4" s="63">
+      <c r="A4" s="58">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>122</v>
+      <c r="B4" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="84" t="s">
-        <v>145</v>
+      <c r="D4" s="79" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -3814,66 +4247,66 @@
         <f t="shared" si="3"/>
         <v>6.1124984550212889E-2</v>
       </c>
-      <c r="J4" s="77">
+      <c r="J4" s="72">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="72">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L4" s="77">
+      <c r="L4" s="72">
         <f t="shared" ref="L4:L54" si="8">_xlfn.PERCENTILE.INC($O4:$AB4,0.5)</f>
         <v>0.6</v>
       </c>
-      <c r="M4" s="77">
+      <c r="M4" s="72">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="N4" s="79">
+      <c r="N4" s="74">
         <f t="shared" si="7"/>
         <v>0.6349999999999999</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="61">
         <v>0.6</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="62">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="Q4" s="61">
         <v>0.6</v>
       </c>
-      <c r="R4" s="66">
+      <c r="R4" s="61">
         <v>0.5</v>
       </c>
-      <c r="S4" s="66">
+      <c r="S4" s="61">
         <v>0.6</v>
       </c>
-      <c r="T4" s="66">
+      <c r="T4" s="61">
         <v>0.5</v>
       </c>
-      <c r="U4" s="66">
+      <c r="U4" s="61">
         <v>0.6</v>
       </c>
-      <c r="V4" s="66">
+      <c r="V4" s="61">
         <v>0.6</v>
       </c>
-      <c r="W4" s="66">
+      <c r="W4" s="61">
         <v>0.6</v>
       </c>
-      <c r="X4" s="66">
+      <c r="X4" s="61">
         <v>0.5</v>
       </c>
-      <c r="Y4" s="66">
+      <c r="Y4" s="61">
         <v>0.6</v>
       </c>
-      <c r="Z4" s="66">
+      <c r="Z4" s="61">
         <v>0.6</v>
       </c>
-      <c r="AA4" s="66">
+      <c r="AA4" s="61">
         <v>0.5</v>
       </c>
-      <c r="AB4" s="69">
+      <c r="AB4" s="64">
         <v>0.7</v>
       </c>
       <c r="AG4" s="12">
@@ -3888,24 +4321,24 @@
       <c r="AO4" s="12">
         <v>1864</v>
       </c>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="72"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="63"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="67"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="58"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="48">
+      <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>122</v>
+      <c r="B5" s="52" t="s">
+        <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="85" t="s">
-        <v>145</v>
+      <c r="D5" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
@@ -3927,66 +4360,66 @@
         <f t="shared" si="3"/>
         <v>0.38949107397127447</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="72">
         <f t="shared" si="4"/>
         <v>3.6949999999999998</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="72">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="72">
         <f t="shared" si="8"/>
         <v>4.25</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="72">
         <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N5" s="79">
+      <c r="N5" s="74">
         <f t="shared" si="7"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="63">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P5" s="67">
+      <c r="P5" s="62">
         <v>4.3</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="63">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R5" s="68">
+      <c r="R5" s="63">
         <v>4.4000000000000004</v>
       </c>
-      <c r="S5" s="68">
+      <c r="S5" s="63">
         <v>4.3</v>
       </c>
-      <c r="T5" s="68">
+      <c r="T5" s="63">
         <v>4.2</v>
       </c>
-      <c r="U5" s="68">
+      <c r="U5" s="63">
         <v>3.8</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="63">
         <v>4</v>
       </c>
-      <c r="W5" s="68">
+      <c r="W5" s="63">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X5" s="68">
+      <c r="X5" s="63">
         <v>3.5</v>
       </c>
-      <c r="Y5" s="68">
+      <c r="Y5" s="63">
         <v>4.2</v>
       </c>
-      <c r="Z5" s="68">
+      <c r="Z5" s="63">
         <v>3.9</v>
       </c>
-      <c r="AA5" s="68">
+      <c r="AA5" s="63">
         <v>4.5</v>
       </c>
-      <c r="AB5" s="70">
+      <c r="AB5" s="65">
         <v>4</v>
       </c>
       <c r="AG5" s="4">
@@ -4001,22 +4434,22 @@
       <c r="AO5" s="4">
         <v>18104</v>
       </c>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="73"/>
-      <c r="BC5" s="76"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="68"/>
+      <c r="BC5" s="71"/>
     </row>
     <row r="6" spans="1:56">
-      <c r="A6" s="48">
+      <c r="A6" s="43">
         <v>5</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>122</v>
+      <c r="B6" s="52" t="s">
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="85" t="s">
-        <v>145</v>
+      <c r="D6" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
@@ -4038,23 +4471,23 @@
         <f t="shared" si="3"/>
         <v>0.59595707493479344</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="72">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="72">
         <f t="shared" si="5"/>
         <v>0.82500000000000007</v>
       </c>
-      <c r="L6" s="77">
+      <c r="L6" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="M6" s="77">
+      <c r="M6" s="72">
         <f t="shared" si="6"/>
         <v>1.5250000000000001</v>
       </c>
-      <c r="N6" s="79">
+      <c r="N6" s="74">
         <f t="shared" si="7"/>
         <v>2.1799999999999997</v>
       </c>
@@ -4112,101 +4545,101 @@
       <c r="AO6" s="4">
         <v>3528</v>
       </c>
-      <c r="AQ6" s="61"/>
+      <c r="AQ6" s="56"/>
     </row>
     <row r="7" spans="1:56" s="2" customFormat="1">
-      <c r="A7" s="49">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>122</v>
+      <c r="B7" s="54" t="s">
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="44">
+      <c r="D7" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="39">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="39">
         <f>MAX($O7:AB7)</f>
         <v>4</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="39">
         <f t="shared" si="1"/>
         <v>3.5857142857142854</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="39">
         <f t="shared" si="2"/>
         <v>3.55</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="39">
         <f t="shared" si="3"/>
         <v>0.33479532865306244</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="73">
         <f t="shared" si="4"/>
         <v>3.03</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="73">
         <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="73">
         <f t="shared" si="8"/>
         <v>3.55</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="73">
         <f t="shared" si="6"/>
         <v>3.875</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N7" s="75">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="37">
         <v>3.1</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="21">
         <v>4</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="37">
         <v>3.5</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="37">
         <v>3.8</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="37">
         <v>3.4</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="37">
         <v>3.5</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="37">
         <v>3.6</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="37">
         <v>3.8</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="37">
         <v>3.4</v>
       </c>
-      <c r="X7" s="42">
+      <c r="X7" s="37">
         <v>3.4</v>
       </c>
-      <c r="Y7" s="42">
+      <c r="Y7" s="37">
         <v>3.9</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="37">
         <v>4</v>
       </c>
-      <c r="AA7" s="42">
+      <c r="AA7" s="37">
         <v>3.9</v>
       </c>
-      <c r="AB7" s="43">
+      <c r="AB7" s="38">
         <v>2.9</v>
       </c>
       <c r="AG7" s="2">
@@ -4221,23 +4654,23 @@
       <c r="AO7" s="2">
         <v>807</v>
       </c>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="75"/>
-      <c r="BD7" s="49"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="70"/>
+      <c r="BD7" s="44"/>
     </row>
     <row r="8" spans="1:56" ht="14" customHeight="1">
-      <c r="A8" s="96">
+      <c r="A8" s="91">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="85" t="s">
-        <v>145</v>
+      <c r="D8" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
@@ -4259,23 +4692,23 @@
         <f t="shared" si="3"/>
         <v>3.1539962440834168</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="72">
         <f t="shared" si="4"/>
         <v>84.484999999999999</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="72">
         <f t="shared" si="5"/>
         <v>86.85</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="72">
         <f t="shared" si="8"/>
         <v>89.050000000000011</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="72">
         <f t="shared" si="6"/>
         <v>91.449999999999989</v>
       </c>
-      <c r="N8" s="79">
+      <c r="N8" s="74">
         <f t="shared" si="7"/>
         <v>93.070000000000007</v>
       </c>
@@ -4334,20 +4767,20 @@
       <c r="AO8" s="12">
         <v>18230</v>
       </c>
-      <c r="AQ8" s="61"/>
+      <c r="AQ8" s="56"/>
     </row>
     <row r="9" spans="1:56">
-      <c r="A9" s="96">
+      <c r="A9" s="91">
         <v>8</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>145</v>
+      <c r="D9" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
@@ -4369,23 +4802,23 @@
         <f t="shared" si="3"/>
         <v>6.4222869159489626</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="72">
         <f t="shared" si="4"/>
         <v>80.015000000000001</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="72">
         <f t="shared" si="5"/>
         <v>83.95</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="72">
         <f t="shared" si="8"/>
         <v>87.15</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="72">
         <f t="shared" si="6"/>
         <v>93.1</v>
       </c>
-      <c r="N9" s="79">
+      <c r="N9" s="74">
         <f t="shared" si="7"/>
         <v>97.64</v>
       </c>
@@ -4444,20 +4877,20 @@
       <c r="AO9" s="12">
         <v>1742</v>
       </c>
-      <c r="AQ9" s="61"/>
+      <c r="AQ9" s="56"/>
     </row>
     <row r="10" spans="1:56">
-      <c r="A10" s="96">
+      <c r="A10" s="91">
         <v>9</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>145</v>
+      <c r="D10" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
@@ -4479,23 +4912,23 @@
         <f t="shared" si="3"/>
         <v>3.2414214762682714</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="72">
         <f t="shared" si="4"/>
         <v>88.314999999999998</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="72">
         <f t="shared" si="5"/>
         <v>91.1</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="72">
         <f t="shared" si="8"/>
         <v>92.15</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="72">
         <f t="shared" si="6"/>
         <v>95.674999999999997</v>
       </c>
-      <c r="N10" s="79">
+      <c r="N10" s="74">
         <f t="shared" si="7"/>
         <v>96.78</v>
       </c>
@@ -4554,20 +4987,20 @@
       <c r="AO10" s="12">
         <v>17336</v>
       </c>
-      <c r="AQ10" s="61"/>
+      <c r="AQ10" s="56"/>
     </row>
     <row r="11" spans="1:56">
-      <c r="A11" s="96">
+      <c r="A11" s="91">
         <v>10</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>145</v>
+      <c r="D11" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
@@ -4589,23 +5022,23 @@
         <f t="shared" si="3"/>
         <v>3.9666258809119985</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="72">
         <f t="shared" si="4"/>
         <v>79.984999999999999</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="72">
         <f t="shared" si="5"/>
         <v>83.724999999999994</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="72">
         <f t="shared" si="8"/>
         <v>86.55</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="72">
         <f t="shared" si="6"/>
         <v>88.75</v>
       </c>
-      <c r="N11" s="79">
+      <c r="N11" s="74">
         <f t="shared" si="7"/>
         <v>90.795000000000002</v>
       </c>
@@ -4664,20 +5097,20 @@
       <c r="AO11" s="12">
         <v>1619</v>
       </c>
-      <c r="AQ11" s="61"/>
+      <c r="AQ11" s="56"/>
     </row>
     <row r="12" spans="1:56">
-      <c r="A12" s="96">
+      <c r="A12" s="91">
         <v>11</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>145</v>
+      <c r="D12" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
@@ -4699,23 +5132,23 @@
         <f t="shared" si="3"/>
         <v>2.4795094339338641</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="72">
         <f t="shared" si="4"/>
         <v>90.39</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="72">
         <f t="shared" si="5"/>
         <v>93.125</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="72">
         <f t="shared" si="8"/>
         <v>95.65</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="72">
         <f t="shared" si="6"/>
         <v>96.275000000000006</v>
       </c>
-      <c r="N12" s="79">
+      <c r="N12" s="74">
         <f t="shared" si="7"/>
         <v>97.364999999999995</v>
       </c>
@@ -4774,20 +5207,20 @@
       <c r="AO12" s="12">
         <v>17424</v>
       </c>
-      <c r="AQ12" s="61"/>
+      <c r="AQ12" s="56"/>
     </row>
     <row r="13" spans="1:56">
-      <c r="A13" s="96">
+      <c r="A13" s="91">
         <v>12</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>145</v>
+      <c r="D13" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
@@ -4809,23 +5242,23 @@
         <f t="shared" si="3"/>
         <v>5.5792196862726513</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="72">
         <f t="shared" si="4"/>
         <v>71.795000000000002</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="72">
         <f t="shared" si="5"/>
         <v>77.974999999999994</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="72">
         <f t="shared" si="8"/>
         <v>80.25</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="72">
         <f t="shared" si="6"/>
         <v>82.05</v>
       </c>
-      <c r="N13" s="79">
+      <c r="N13" s="74">
         <f t="shared" si="7"/>
         <v>87.78</v>
       </c>
@@ -4884,20 +5317,20 @@
       <c r="AO13" s="12">
         <v>1394</v>
       </c>
-      <c r="AQ13" s="61"/>
+      <c r="AQ13" s="56"/>
     </row>
     <row r="14" spans="1:56">
-      <c r="A14" s="96">
+      <c r="A14" s="91">
         <v>13</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>145</v>
+      <c r="D14" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
@@ -4919,23 +5352,23 @@
         <f t="shared" si="3"/>
         <v>2.8394106337852465</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="72">
         <f t="shared" si="4"/>
         <v>88.225000000000009</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="72">
         <f t="shared" si="5"/>
         <v>89.375</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="72">
         <f t="shared" si="8"/>
         <v>91.8</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="72">
         <f t="shared" si="6"/>
         <v>94.224999999999994</v>
       </c>
-      <c r="N14" s="79">
+      <c r="N14" s="74">
         <f t="shared" si="7"/>
         <v>95.8</v>
       </c>
@@ -4994,20 +5427,20 @@
       <c r="AO14" s="12">
         <v>17210</v>
       </c>
-      <c r="AQ14" s="61"/>
+      <c r="AQ14" s="56"/>
     </row>
     <row r="15" spans="1:56">
-      <c r="A15" s="48">
+      <c r="A15" s="43">
         <v>14</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>123</v>
+      <c r="B15" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>145</v>
+      <c r="D15" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
@@ -5029,23 +5462,23 @@
         <f t="shared" si="3"/>
         <v>1.7801253197025622</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="72">
         <f t="shared" si="4"/>
         <v>93.28</v>
       </c>
-      <c r="K15" s="77">
+      <c r="K15" s="72">
         <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="72">
         <f t="shared" si="8"/>
         <v>95.45</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="72">
         <f t="shared" si="6"/>
         <v>95.7</v>
       </c>
-      <c r="N15" s="79">
+      <c r="N15" s="74">
         <f t="shared" si="7"/>
         <v>98.649999999999991</v>
       </c>
@@ -5104,20 +5537,20 @@
       <c r="AO15" s="12">
         <v>1761</v>
       </c>
-      <c r="AQ15" s="61"/>
+      <c r="AQ15" s="56"/>
     </row>
     <row r="16" spans="1:56">
-      <c r="A16" s="48">
+      <c r="A16" s="43">
         <v>15</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>123</v>
+      <c r="B16" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="85" t="s">
-        <v>145</v>
+      <c r="D16" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
@@ -5139,30 +5572,30 @@
         <f t="shared" si="3"/>
         <v>0.43809026115981642</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="72">
         <f t="shared" si="4"/>
         <v>98.850000000000009</v>
       </c>
-      <c r="K16" s="77">
+      <c r="K16" s="72">
         <f t="shared" si="5"/>
         <v>99.5</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="72">
         <f t="shared" si="8"/>
         <v>99.65</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="72">
         <f t="shared" si="6"/>
         <v>99.8</v>
       </c>
-      <c r="N16" s="79">
+      <c r="N16" s="74">
         <f t="shared" si="7"/>
         <v>99.9</v>
       </c>
       <c r="O16" s="5">
         <v>99.8</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="26">
         <v>99.4</v>
       </c>
       <c r="Q16" s="5">
@@ -5214,20 +5647,20 @@
       <c r="AO16" s="12">
         <v>18028</v>
       </c>
-      <c r="AQ16" s="61"/>
+      <c r="AQ16" s="56"/>
     </row>
     <row r="17" spans="1:56">
-      <c r="A17" s="48">
+      <c r="A17" s="43">
         <v>16</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>123</v>
+      <c r="B17" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="85" t="s">
-        <v>145</v>
+      <c r="D17" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
@@ -5249,23 +5682,23 @@
         <f t="shared" si="3"/>
         <v>5.5839300430140355</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="72">
         <f t="shared" si="4"/>
         <v>75.989999999999995</v>
       </c>
-      <c r="K17" s="77">
+      <c r="K17" s="72">
         <f t="shared" si="5"/>
         <v>81.974999999999994</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="72">
         <f t="shared" si="8"/>
         <v>86.05</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="72">
         <f t="shared" si="6"/>
         <v>88.924999999999997</v>
       </c>
-      <c r="N17" s="79">
+      <c r="N17" s="74">
         <f t="shared" si="7"/>
         <v>91.614999999999995</v>
       </c>
@@ -5324,20 +5757,20 @@
       <c r="AO17" s="12">
         <v>1592</v>
       </c>
-      <c r="AQ17" s="61"/>
+      <c r="AQ17" s="56"/>
     </row>
     <row r="18" spans="1:56">
-      <c r="A18" s="48">
+      <c r="A18" s="43">
         <v>17</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>123</v>
+      <c r="B18" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="85" t="s">
-        <v>145</v>
+      <c r="D18" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
@@ -5359,23 +5792,23 @@
         <f t="shared" ref="I18:I54" si="9">STDEV($O18:$AB18)</f>
         <v>3.611702590800578</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="72">
         <f t="shared" si="4"/>
         <v>87.825000000000003</v>
       </c>
-      <c r="K18" s="77">
+      <c r="K18" s="72">
         <f t="shared" si="5"/>
         <v>89.825000000000003</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="72">
         <f t="shared" si="8"/>
         <v>93.6</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="72">
         <f t="shared" si="6"/>
         <v>96.575000000000003</v>
       </c>
-      <c r="N18" s="79">
+      <c r="N18" s="74">
         <f t="shared" si="7"/>
         <v>97.034999999999997</v>
       </c>
@@ -5434,20 +5867,20 @@
       <c r="AO18" s="12">
         <v>17568</v>
       </c>
-      <c r="AQ18" s="61"/>
+      <c r="AQ18" s="56"/>
     </row>
     <row r="19" spans="1:56">
-      <c r="A19" s="48">
+      <c r="A19" s="43">
         <v>18</v>
       </c>
-      <c r="B19" s="58" t="s">
-        <v>123</v>
+      <c r="B19" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="85" t="s">
-        <v>145</v>
+      <c r="D19" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
@@ -5469,23 +5902,23 @@
         <f t="shared" si="9"/>
         <v>13.083848360176335</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="72">
         <f t="shared" si="4"/>
         <v>40.954999999999998</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="72">
         <f t="shared" si="5"/>
         <v>53.125</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="72">
         <f t="shared" si="8"/>
         <v>58.95</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="72">
         <f t="shared" si="6"/>
         <v>64.150000000000006</v>
       </c>
-      <c r="N19" s="79">
+      <c r="N19" s="74">
         <f t="shared" si="7"/>
         <v>75.5</v>
       </c>
@@ -5544,20 +5977,20 @@
       <c r="AO19" s="12">
         <v>1152</v>
       </c>
-      <c r="AQ19" s="61"/>
+      <c r="AQ19" s="56"/>
     </row>
     <row r="20" spans="1:56">
-      <c r="A20" s="48">
+      <c r="A20" s="43">
         <v>19</v>
       </c>
-      <c r="B20" s="58" t="s">
-        <v>123</v>
+      <c r="B20" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="85" t="s">
-        <v>145</v>
+      <c r="D20" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="0"/>
@@ -5579,23 +6012,23 @@
         <f t="shared" si="9"/>
         <v>21.874809889283799</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="72">
         <f t="shared" si="4"/>
         <v>21.949999999999996</v>
       </c>
-      <c r="K20" s="77">
+      <c r="K20" s="72">
         <f t="shared" si="5"/>
         <v>62.075000000000003</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="72">
         <f t="shared" si="8"/>
         <v>69.5</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="72">
         <f t="shared" si="6"/>
         <v>75.375</v>
       </c>
-      <c r="N20" s="79">
+      <c r="N20" s="74">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
@@ -5654,20 +6087,20 @@
       <c r="AO20" s="12">
         <v>14409</v>
       </c>
-      <c r="AQ20" s="61"/>
+      <c r="AQ20" s="56"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="48">
+      <c r="A21" s="43">
         <v>20</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>123</v>
+      <c r="B21" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="85" t="s">
-        <v>145</v>
+      <c r="D21" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="0"/>
@@ -5689,23 +6122,23 @@
         <f t="shared" si="9"/>
         <v>31.260363556272502</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="72">
         <f t="shared" si="4"/>
         <v>11.26</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="72">
         <f t="shared" si="5"/>
         <v>22.875</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="72">
         <f t="shared" si="8"/>
         <v>41.55</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="72">
         <f t="shared" si="6"/>
         <v>78.074999999999989</v>
       </c>
-      <c r="N21" s="79">
+      <c r="N21" s="74">
         <f t="shared" si="7"/>
         <v>90.254999999999995</v>
       </c>
@@ -5764,20 +6197,20 @@
       <c r="AO21" s="12">
         <v>1298</v>
       </c>
-      <c r="AQ21" s="61"/>
+      <c r="AQ21" s="56"/>
     </row>
     <row r="22" spans="1:56">
-      <c r="A22" s="48">
+      <c r="A22" s="43">
         <v>21</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>123</v>
+      <c r="B22" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="85" t="s">
-        <v>145</v>
+      <c r="D22" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
@@ -5799,23 +6232,23 @@
         <f t="shared" si="9"/>
         <v>31.609872049551402</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="72">
         <f t="shared" si="4"/>
         <v>12.315</v>
       </c>
-      <c r="K22" s="77">
+      <c r="K22" s="72">
         <f t="shared" si="5"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="72">
         <f t="shared" si="8"/>
         <v>60.55</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="72">
         <f t="shared" si="6"/>
         <v>87.075000000000003</v>
       </c>
-      <c r="N22" s="79">
+      <c r="N22" s="74">
         <f t="shared" si="7"/>
         <v>95.31</v>
       </c>
@@ -5874,20 +6307,20 @@
       <c r="AO22" s="12">
         <v>17333</v>
       </c>
-      <c r="AQ22" s="61"/>
+      <c r="AQ22" s="56"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="96">
+      <c r="A23" s="91">
         <v>22</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="85" t="s">
-        <v>145</v>
+      <c r="D23" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="0"/>
@@ -5909,23 +6342,23 @@
         <f t="shared" si="9"/>
         <v>5.5237151059254135</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="72">
         <f t="shared" si="4"/>
         <v>75.89</v>
       </c>
-      <c r="K23" s="77">
+      <c r="K23" s="72">
         <f t="shared" si="5"/>
         <v>79.625</v>
       </c>
-      <c r="L23" s="77">
+      <c r="L23" s="72">
         <f t="shared" si="8"/>
         <v>82.35</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="72">
         <f t="shared" si="6"/>
         <v>84.725000000000009</v>
       </c>
-      <c r="N23" s="79">
+      <c r="N23" s="74">
         <f t="shared" si="7"/>
         <v>92.27000000000001</v>
       </c>
@@ -5984,20 +6417,20 @@
       <c r="AO23" s="12">
         <v>1498</v>
       </c>
-      <c r="AQ23" s="61"/>
+      <c r="AQ23" s="56"/>
     </row>
     <row r="24" spans="1:56">
-      <c r="A24" s="96">
+      <c r="A24" s="91">
         <v>23</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="85" t="s">
-        <v>145</v>
+      <c r="D24" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
@@ -6019,23 +6452,23 @@
         <f t="shared" si="9"/>
         <v>5.364069514672769</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="72">
         <f t="shared" si="4"/>
         <v>80.08</v>
       </c>
-      <c r="K24" s="77">
+      <c r="K24" s="72">
         <f t="shared" si="5"/>
         <v>85.525000000000006</v>
       </c>
-      <c r="L24" s="77">
+      <c r="L24" s="72">
         <f t="shared" si="8"/>
         <v>87.1</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="72">
         <f t="shared" si="6"/>
         <v>89.825000000000003</v>
       </c>
-      <c r="N24" s="79">
+      <c r="N24" s="74">
         <f t="shared" si="7"/>
         <v>95.57</v>
       </c>
@@ -6094,20 +6527,20 @@
       <c r="AO24" s="12">
         <v>15481</v>
       </c>
-      <c r="AQ24" s="61"/>
+      <c r="AQ24" s="56"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="63">
+      <c r="A25" s="58">
         <v>24</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>123</v>
+      <c r="B25" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="85" t="s">
-        <v>145</v>
+      <c r="D25" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" si="0"/>
@@ -6129,23 +6562,23 @@
         <f t="shared" si="9"/>
         <v>10.851657087213118</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="72">
         <f t="shared" si="4"/>
         <v>48.994999999999997</v>
       </c>
-      <c r="K25" s="77">
+      <c r="K25" s="72">
         <f t="shared" si="5"/>
         <v>57.1</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="72">
         <f t="shared" si="8"/>
         <v>61.8</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="72">
         <f t="shared" si="6"/>
         <v>65.8</v>
       </c>
-      <c r="N25" s="79">
+      <c r="N25" s="74">
         <f t="shared" si="7"/>
         <v>81.66</v>
       </c>
@@ -6204,20 +6637,20 @@
       <c r="AO25" s="12">
         <v>1247</v>
       </c>
-      <c r="AQ25" s="61"/>
+      <c r="AQ25" s="56"/>
     </row>
     <row r="26" spans="1:56">
-      <c r="A26" s="63">
+      <c r="A26" s="58">
         <v>25</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>123</v>
+      <c r="B26" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="85" t="s">
-        <v>145</v>
+      <c r="D26" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
@@ -6239,23 +6672,23 @@
         <f t="shared" si="9"/>
         <v>4.3924323032303576</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="72">
         <f t="shared" si="4"/>
         <v>73.35499999999999</v>
       </c>
-      <c r="K26" s="77">
+      <c r="K26" s="72">
         <f t="shared" si="5"/>
         <v>74.95</v>
       </c>
-      <c r="L26" s="77">
+      <c r="L26" s="72">
         <f t="shared" si="8"/>
         <v>76.900000000000006</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="72">
         <f t="shared" si="6"/>
         <v>82.025000000000006</v>
       </c>
-      <c r="N26" s="79">
+      <c r="N26" s="74">
         <f t="shared" si="7"/>
         <v>84.77000000000001</v>
       </c>
@@ -6314,20 +6747,20 @@
       <c r="AO26" s="12">
         <v>15376</v>
       </c>
-      <c r="AQ26" s="61"/>
+      <c r="AQ26" s="56"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="96">
+      <c r="A27" s="91">
         <v>26</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="85" t="s">
-        <v>145</v>
+      <c r="D27" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
@@ -6349,23 +6782,23 @@
         <f t="shared" si="9"/>
         <v>11.839580201200485</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="72">
         <f t="shared" si="4"/>
         <v>41.589999999999996</v>
       </c>
-      <c r="K27" s="77">
+      <c r="K27" s="72">
         <f t="shared" si="5"/>
         <v>53.475000000000001</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="72">
         <f t="shared" si="8"/>
         <v>57.150000000000006</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="72">
         <f t="shared" si="6"/>
         <v>65.625</v>
       </c>
-      <c r="N27" s="79">
+      <c r="N27" s="74">
         <f t="shared" si="7"/>
         <v>73.644999999999996</v>
       </c>
@@ -6424,101 +6857,101 @@
       <c r="AO27" s="12">
         <v>1237</v>
       </c>
-      <c r="AQ27" s="61"/>
+      <c r="AQ27" s="56"/>
     </row>
     <row r="28" spans="1:56" s="2" customFormat="1">
-      <c r="A28" s="97">
+      <c r="A28" s="92">
         <v>27</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="44">
+      <c r="D28" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="39">
         <f t="shared" si="0"/>
         <v>62.4</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="39">
         <f>MAX($O28:AB28)</f>
         <v>84.4</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="39">
         <f t="shared" si="1"/>
         <v>73.285714285714292</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="39">
         <f t="shared" si="2"/>
         <v>72.75</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="39">
         <f t="shared" si="9"/>
         <v>6.4858256271606693</v>
       </c>
-      <c r="J28" s="78">
+      <c r="J28" s="73">
         <f t="shared" si="4"/>
         <v>63.504999999999995</v>
       </c>
-      <c r="K28" s="78">
+      <c r="K28" s="73">
         <f t="shared" si="5"/>
         <v>69.125</v>
       </c>
-      <c r="L28" s="78">
+      <c r="L28" s="73">
         <f t="shared" si="8"/>
         <v>72.75</v>
       </c>
-      <c r="M28" s="78">
+      <c r="M28" s="73">
         <f t="shared" si="6"/>
         <v>77.3</v>
       </c>
-      <c r="N28" s="80">
+      <c r="N28" s="75">
         <f t="shared" si="7"/>
         <v>82.515000000000001</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="37">
         <v>73.599999999999994</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="37">
         <v>77.5</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="37">
         <v>68.3</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="37">
         <v>67.3</v>
       </c>
-      <c r="S28" s="42">
+      <c r="S28" s="37">
         <v>62.4</v>
       </c>
-      <c r="T28" s="42">
+      <c r="T28" s="37">
         <v>64.099999999999994</v>
       </c>
-      <c r="U28" s="42">
+      <c r="U28" s="37">
         <v>71.900000000000006</v>
       </c>
-      <c r="V28" s="42">
+      <c r="V28" s="37">
         <v>81.5</v>
       </c>
-      <c r="W28" s="42">
+      <c r="W28" s="37">
         <v>74.2</v>
       </c>
-      <c r="X28" s="42">
+      <c r="X28" s="37">
         <v>71.8</v>
       </c>
-      <c r="Y28" s="42">
+      <c r="Y28" s="37">
         <v>71.599999999999994</v>
       </c>
-      <c r="Z28" s="42">
+      <c r="Z28" s="37">
         <v>80.7</v>
       </c>
-      <c r="AA28" s="42">
+      <c r="AA28" s="37">
         <v>84.4</v>
       </c>
-      <c r="AB28" s="43">
+      <c r="AB28" s="38">
         <v>76.7</v>
       </c>
       <c r="AG28" s="2">
@@ -6533,23 +6966,23 @@
       <c r="AO28" s="2">
         <v>15288</v>
       </c>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="62"/>
-      <c r="AR28" s="75"/>
-      <c r="BD28" s="49"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="70"/>
+      <c r="BD28" s="44"/>
     </row>
     <row r="29" spans="1:56">
-      <c r="A29" s="48">
+      <c r="A29" s="43">
         <v>28</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>124</v>
+      <c r="B29" s="53" t="s">
+        <v>123</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="85" t="s">
-        <v>145</v>
+      <c r="D29" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="0"/>
@@ -6571,23 +7004,23 @@
         <f t="shared" si="9"/>
         <v>2.9222526310298078</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="72">
         <f t="shared" si="4"/>
         <v>19.614999999999998</v>
       </c>
-      <c r="K29" s="77">
+      <c r="K29" s="72">
         <f t="shared" si="5"/>
         <v>21.774999999999999</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="72">
         <f t="shared" si="8"/>
         <v>23.799999999999997</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="72">
         <f t="shared" si="6"/>
         <v>24.475000000000001</v>
       </c>
-      <c r="N29" s="79">
+      <c r="N29" s="74">
         <f t="shared" si="7"/>
         <v>27.4</v>
       </c>
@@ -6646,101 +7079,101 @@
       <c r="AO29" s="12">
         <v>445</v>
       </c>
-      <c r="AQ29" s="61"/>
+      <c r="AQ29" s="56"/>
     </row>
     <row r="30" spans="1:56" s="2" customFormat="1">
-      <c r="A30" s="49">
+      <c r="A30" s="44">
         <v>29</v>
       </c>
-      <c r="B30" s="60" t="s">
-        <v>124</v>
+      <c r="B30" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="44">
+      <c r="D30" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="39">
         <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="39">
         <f>MAX($O30:AB30)</f>
         <v>20.7</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="39">
         <f t="shared" si="1"/>
         <v>17.114285714285717</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="39">
         <f t="shared" si="2"/>
         <v>17.149999999999999</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="39">
         <f t="shared" si="9"/>
         <v>2.4575964314305327</v>
       </c>
-      <c r="J30" s="78">
+      <c r="J30" s="73">
         <f t="shared" si="4"/>
         <v>13.555</v>
       </c>
-      <c r="K30" s="78">
+      <c r="K30" s="73">
         <f t="shared" si="5"/>
         <v>15.55</v>
       </c>
-      <c r="L30" s="78">
+      <c r="L30" s="73">
         <f t="shared" si="8"/>
         <v>17.149999999999999</v>
       </c>
-      <c r="M30" s="78">
+      <c r="M30" s="73">
         <f t="shared" si="6"/>
         <v>18.774999999999999</v>
       </c>
-      <c r="N30" s="80">
+      <c r="N30" s="75">
         <f t="shared" si="7"/>
         <v>20.7</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="37">
         <v>19.3</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="37">
         <v>14.5</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="37">
         <v>17.2</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="37">
         <v>17.8</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="37">
         <v>18.100000000000001</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="37">
         <v>20.7</v>
       </c>
-      <c r="U30" s="42">
+      <c r="U30" s="37">
         <v>15.2</v>
       </c>
-      <c r="V30" s="42">
+      <c r="V30" s="37">
         <v>15.4</v>
       </c>
-      <c r="W30" s="42">
+      <c r="W30" s="37">
         <v>19</v>
       </c>
-      <c r="X30" s="42">
+      <c r="X30" s="37">
         <v>20.7</v>
       </c>
-      <c r="Y30" s="42">
+      <c r="Y30" s="37">
         <v>11.8</v>
       </c>
-      <c r="Z30" s="42">
+      <c r="Z30" s="37">
         <v>16</v>
       </c>
-      <c r="AA30" s="42">
+      <c r="AA30" s="37">
         <v>16.8</v>
       </c>
-      <c r="AB30" s="43">
+      <c r="AB30" s="38">
         <v>17.100000000000001</v>
       </c>
       <c r="AG30" s="2">
@@ -6755,23 +7188,23 @@
       <c r="AO30" s="2">
         <v>3032</v>
       </c>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="75"/>
-      <c r="BD30" s="49"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="70"/>
+      <c r="BD30" s="44"/>
     </row>
     <row r="31" spans="1:56" ht="14" customHeight="1">
-      <c r="A31" s="48">
+      <c r="A31" s="43">
         <v>30</v>
       </c>
-      <c r="B31" s="58" t="s">
-        <v>125</v>
+      <c r="B31" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="85" t="s">
-        <v>145</v>
+      <c r="D31" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
@@ -6793,23 +7226,23 @@
         <f t="shared" si="9"/>
         <v>2.9784943463818232</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="72">
         <f t="shared" si="4"/>
         <v>22.89</v>
       </c>
-      <c r="K31" s="77">
+      <c r="K31" s="72">
         <f t="shared" si="5"/>
         <v>23.324999999999999</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="72">
         <f t="shared" si="8"/>
         <v>25.25</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="72">
         <f t="shared" si="6"/>
         <v>28.224999999999998</v>
       </c>
-      <c r="N31" s="79">
+      <c r="N31" s="74">
         <f t="shared" si="7"/>
         <v>30.475000000000001</v>
       </c>
@@ -6868,20 +7301,20 @@
       <c r="AO31" s="12">
         <v>367</v>
       </c>
-      <c r="AQ31" s="61"/>
+      <c r="AQ31" s="56"/>
     </row>
     <row r="32" spans="1:56">
-      <c r="A32" s="48">
+      <c r="A32" s="43">
         <v>31</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>125</v>
+      <c r="B32" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="85" t="s">
-        <v>145</v>
+      <c r="D32" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="0"/>
@@ -6903,23 +7336,23 @@
         <f t="shared" si="9"/>
         <v>2.2217209446831867</v>
       </c>
-      <c r="J32" s="77">
+      <c r="J32" s="72">
         <f t="shared" si="4"/>
         <v>54.14</v>
       </c>
-      <c r="K32" s="77">
+      <c r="K32" s="72">
         <f t="shared" si="5"/>
         <v>55.05</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="72">
         <f t="shared" si="8"/>
         <v>55.8</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="72">
         <f t="shared" si="6"/>
         <v>57.475000000000001</v>
       </c>
-      <c r="N32" s="79">
+      <c r="N32" s="74">
         <f t="shared" si="7"/>
         <v>60.51</v>
       </c>
@@ -6978,20 +7411,20 @@
       <c r="AO32" s="12">
         <v>9245</v>
       </c>
-      <c r="AQ32" s="61"/>
+      <c r="AQ32" s="56"/>
     </row>
     <row r="33" spans="1:56">
-      <c r="A33" s="48">
+      <c r="A33" s="43">
         <v>32</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>125</v>
+      <c r="B33" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="85" t="s">
-        <v>145</v>
+      <c r="D33" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E33" s="10">
         <f t="shared" si="0"/>
@@ -7013,23 +7446,23 @@
         <f t="shared" si="9"/>
         <v>3.5848889203751582</v>
       </c>
-      <c r="J33" s="77">
+      <c r="J33" s="72">
         <f t="shared" si="4"/>
         <v>74.48</v>
       </c>
-      <c r="K33" s="77">
+      <c r="K33" s="72">
         <f t="shared" si="5"/>
         <v>77.625</v>
       </c>
-      <c r="L33" s="77">
+      <c r="L33" s="72">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="M33" s="77">
+      <c r="M33" s="72">
         <f t="shared" si="6"/>
         <v>81.875</v>
       </c>
-      <c r="N33" s="79">
+      <c r="N33" s="74">
         <f t="shared" si="7"/>
         <v>84.320000000000007</v>
       </c>
@@ -7088,101 +7521,101 @@
       <c r="AO33" s="12">
         <v>1215</v>
       </c>
-      <c r="AQ33" s="61"/>
+      <c r="AQ33" s="56"/>
     </row>
     <row r="34" spans="1:56" s="2" customFormat="1">
-      <c r="A34" s="49">
+      <c r="A34" s="44">
         <v>33</v>
       </c>
-      <c r="B34" s="60" t="s">
-        <v>125</v>
+      <c r="B34" s="55" t="s">
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="44">
+      <c r="D34" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="39">
         <f t="shared" ref="E34:E54" si="10">MIN($O34:$AB34)</f>
         <v>69.7</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="39">
         <f>MAX($O34:AB34)</f>
         <v>78.8</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="39">
         <f t="shared" ref="G34:G54" si="11">AVERAGE($O34:$AB34)</f>
         <v>73.871428571428581</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="39">
         <f t="shared" ref="H34:H54" si="12">MEDIAN($O34:$AB34)</f>
         <v>73.55</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="39">
         <f t="shared" si="9"/>
         <v>3.1027106192510403</v>
       </c>
-      <c r="J34" s="78">
+      <c r="J34" s="73">
         <f t="shared" si="4"/>
         <v>69.7</v>
       </c>
-      <c r="K34" s="78">
+      <c r="K34" s="73">
         <f t="shared" si="5"/>
         <v>71.5</v>
       </c>
-      <c r="L34" s="78">
+      <c r="L34" s="73">
         <f t="shared" si="8"/>
         <v>73.55</v>
       </c>
-      <c r="M34" s="78">
+      <c r="M34" s="73">
         <f t="shared" si="6"/>
         <v>76.524999999999991</v>
       </c>
-      <c r="N34" s="80">
+      <c r="N34" s="75">
         <f t="shared" si="7"/>
         <v>77.89</v>
       </c>
-      <c r="O34" s="42">
+      <c r="O34" s="37">
         <v>76.3</v>
       </c>
-      <c r="P34" s="42">
+      <c r="P34" s="37">
         <v>75.400000000000006</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="37">
         <v>72.400000000000006</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="37">
         <v>72.599999999999994</v>
       </c>
-      <c r="S34" s="42">
+      <c r="S34" s="37">
         <v>76.599999999999994</v>
       </c>
-      <c r="T34" s="42">
+      <c r="T34" s="37">
         <v>77.400000000000006</v>
       </c>
-      <c r="U34" s="42">
+      <c r="U34" s="37">
         <v>74.099999999999994</v>
       </c>
-      <c r="V34" s="42">
+      <c r="V34" s="37">
         <v>73</v>
       </c>
-      <c r="W34" s="42">
+      <c r="W34" s="37">
         <v>78.8</v>
       </c>
-      <c r="X34" s="42">
+      <c r="X34" s="37">
         <v>77.099999999999994</v>
       </c>
-      <c r="Y34" s="42">
+      <c r="Y34" s="37">
         <v>69.7</v>
       </c>
-      <c r="Z34" s="42">
+      <c r="Z34" s="37">
         <v>71.2</v>
       </c>
-      <c r="AA34" s="42">
+      <c r="AA34" s="37">
         <v>69.900000000000006</v>
       </c>
-      <c r="AB34" s="43">
+      <c r="AB34" s="38">
         <v>69.7</v>
       </c>
       <c r="AG34" s="2">
@@ -7197,23 +7630,23 @@
       <c r="AO34" s="2">
         <v>12176</v>
       </c>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="62"/>
-      <c r="AR34" s="75"/>
-      <c r="BD34" s="49"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="70"/>
+      <c r="BD34" s="44"/>
     </row>
     <row r="35" spans="1:56" ht="14" customHeight="1">
-      <c r="A35" s="48">
+      <c r="A35" s="43">
         <v>34</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>127</v>
+      <c r="B35" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="85" t="s">
-        <v>145</v>
+      <c r="D35" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E35" s="10">
         <f t="shared" si="10"/>
@@ -7235,23 +7668,23 @@
         <f t="shared" si="9"/>
         <v>5.1963639020181418</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="72">
         <f t="shared" si="4"/>
         <v>29.560000000000002</v>
       </c>
-      <c r="K35" s="77">
+      <c r="K35" s="72">
         <f t="shared" si="5"/>
         <v>33.875</v>
       </c>
-      <c r="L35" s="77">
+      <c r="L35" s="72">
         <f t="shared" si="8"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="M35" s="77">
+      <c r="M35" s="72">
         <f t="shared" si="6"/>
         <v>39.475000000000001</v>
       </c>
-      <c r="N35" s="79">
+      <c r="N35" s="74">
         <f t="shared" si="7"/>
         <v>44.755000000000003</v>
       </c>
@@ -7310,20 +7743,20 @@
       <c r="AO35" s="12">
         <v>759</v>
       </c>
-      <c r="AQ35" s="61"/>
+      <c r="AQ35" s="56"/>
     </row>
     <row r="36" spans="1:56">
-      <c r="A36" s="48">
+      <c r="A36" s="43">
         <v>35</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>127</v>
+      <c r="B36" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="85" t="s">
-        <v>145</v>
+      <c r="D36" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E36" s="10">
         <f t="shared" si="10"/>
@@ -7345,23 +7778,23 @@
         <f t="shared" si="9"/>
         <v>1.936931412493279</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="72">
         <f t="shared" si="4"/>
         <v>11.955</v>
       </c>
-      <c r="K36" s="77">
+      <c r="K36" s="72">
         <f t="shared" si="5"/>
         <v>13.1</v>
       </c>
-      <c r="L36" s="77">
+      <c r="L36" s="72">
         <f t="shared" si="8"/>
         <v>14.55</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="72">
         <f t="shared" si="6"/>
         <v>15.875</v>
       </c>
-      <c r="N36" s="79">
+      <c r="N36" s="74">
         <f t="shared" si="7"/>
         <v>17.39</v>
       </c>
@@ -7420,20 +7853,20 @@
       <c r="AO36" s="12">
         <v>2568</v>
       </c>
-      <c r="AQ36" s="61"/>
+      <c r="AQ36" s="56"/>
     </row>
     <row r="37" spans="1:56">
-      <c r="A37" s="48">
+      <c r="A37" s="43">
         <v>36</v>
       </c>
-      <c r="B37" s="58" t="s">
-        <v>127</v>
+      <c r="B37" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="85" t="s">
-        <v>145</v>
+      <c r="D37" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E37" s="10">
         <f t="shared" si="10"/>
@@ -7455,23 +7888,23 @@
         <f t="shared" si="9"/>
         <v>3.0903607670188946</v>
       </c>
-      <c r="J37" s="77">
+      <c r="J37" s="72">
         <f t="shared" si="4"/>
         <v>25.114999999999998</v>
       </c>
-      <c r="K37" s="77">
+      <c r="K37" s="72">
         <f t="shared" si="5"/>
         <v>25.824999999999999</v>
       </c>
-      <c r="L37" s="77">
+      <c r="L37" s="72">
         <f t="shared" si="8"/>
         <v>29.4</v>
       </c>
-      <c r="M37" s="77">
+      <c r="M37" s="72">
         <f t="shared" si="6"/>
         <v>30.824999999999999</v>
       </c>
-      <c r="N37" s="79">
+      <c r="N37" s="74">
         <f t="shared" si="7"/>
         <v>33.585000000000001</v>
       </c>
@@ -7530,101 +7963,101 @@
       <c r="AO37" s="12">
         <v>419</v>
       </c>
-      <c r="AQ37" s="61"/>
+      <c r="AQ37" s="56"/>
     </row>
     <row r="38" spans="1:56" s="2" customFormat="1">
-      <c r="A38" s="49">
+      <c r="A38" s="44">
         <v>37</v>
       </c>
-      <c r="B38" s="60" t="s">
-        <v>127</v>
+      <c r="B38" s="55" t="s">
+        <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="44">
+      <c r="D38" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="39">
         <f t="shared" si="10"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="39">
         <f>MAX($O38:AB38)</f>
         <v>24.8</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="39">
         <f t="shared" si="11"/>
         <v>20.37142857142857</v>
       </c>
-      <c r="H38" s="44">
+      <c r="H38" s="39">
         <f t="shared" si="12"/>
         <v>19.850000000000001</v>
       </c>
-      <c r="I38" s="44">
+      <c r="I38" s="39">
         <f t="shared" si="9"/>
         <v>2.1695191141847872</v>
       </c>
-      <c r="J38" s="78">
+      <c r="J38" s="73">
         <f t="shared" si="4"/>
         <v>18.049999999999997</v>
       </c>
-      <c r="K38" s="78">
+      <c r="K38" s="73">
         <f t="shared" si="5"/>
         <v>18.850000000000001</v>
       </c>
-      <c r="L38" s="78">
+      <c r="L38" s="73">
         <f t="shared" si="8"/>
         <v>19.850000000000001</v>
       </c>
-      <c r="M38" s="78">
+      <c r="M38" s="73">
         <f t="shared" si="6"/>
         <v>21.95</v>
       </c>
-      <c r="N38" s="80">
+      <c r="N38" s="75">
         <f t="shared" si="7"/>
         <v>23.695</v>
       </c>
-      <c r="O38" s="42">
+      <c r="O38" s="37">
         <v>20.2</v>
       </c>
-      <c r="P38" s="42">
+      <c r="P38" s="37">
         <v>19</v>
       </c>
-      <c r="Q38" s="42">
+      <c r="Q38" s="37">
         <v>22.4</v>
       </c>
-      <c r="R38" s="42">
+      <c r="R38" s="37">
         <v>18.5</v>
       </c>
-      <c r="S38" s="42">
+      <c r="S38" s="37">
         <v>18.399999999999999</v>
       </c>
-      <c r="T38" s="42">
+      <c r="T38" s="37">
         <v>18.8</v>
       </c>
-      <c r="U38" s="42">
+      <c r="U38" s="37">
         <v>17.399999999999999</v>
       </c>
-      <c r="V38" s="42">
+      <c r="V38" s="37">
         <v>20.6</v>
       </c>
-      <c r="W38" s="42">
+      <c r="W38" s="37">
         <v>19.899999999999999</v>
       </c>
-      <c r="X38" s="42">
+      <c r="X38" s="37">
         <v>19.2</v>
       </c>
-      <c r="Y38" s="42">
+      <c r="Y38" s="37">
         <v>23.1</v>
       </c>
-      <c r="Z38" s="42">
+      <c r="Z38" s="37">
         <v>23.1</v>
       </c>
-      <c r="AA38" s="42">
+      <c r="AA38" s="37">
         <v>19.8</v>
       </c>
-      <c r="AB38" s="43">
+      <c r="AB38" s="38">
         <v>24.8</v>
       </c>
       <c r="AG38" s="2">
@@ -7639,23 +8072,23 @@
       <c r="AO38" s="2">
         <v>3399</v>
       </c>
-      <c r="AP38" s="49"/>
-      <c r="AQ38" s="62"/>
-      <c r="AR38" s="75"/>
-      <c r="BD38" s="49"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="57"/>
+      <c r="AR38" s="70"/>
+      <c r="BD38" s="44"/>
     </row>
     <row r="39" spans="1:56" ht="14" customHeight="1">
-      <c r="A39" s="48">
+      <c r="A39" s="43">
         <v>38</v>
       </c>
-      <c r="B39" s="58" t="s">
-        <v>126</v>
+      <c r="B39" s="53" t="s">
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="85" t="s">
-        <v>145</v>
+      <c r="D39" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E39" s="10">
         <f t="shared" si="10"/>
@@ -7677,23 +8110,23 @@
         <f t="shared" si="9"/>
         <v>0.33191088437234939</v>
       </c>
-      <c r="J39" s="77">
+      <c r="J39" s="72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K39" s="77">
+      <c r="K39" s="72">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="L39" s="77">
+      <c r="L39" s="72">
         <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
-      <c r="M39" s="77">
+      <c r="M39" s="72">
         <f t="shared" si="6"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="N39" s="79">
+      <c r="N39" s="74">
         <f t="shared" si="7"/>
         <v>0.87499999999999978</v>
       </c>
@@ -7752,20 +8185,20 @@
       <c r="AO39" s="12">
         <v>10</v>
       </c>
-      <c r="AQ39" s="61"/>
+      <c r="AQ39" s="56"/>
     </row>
     <row r="40" spans="1:56">
-      <c r="A40" s="48">
+      <c r="A40" s="43">
         <v>39</v>
       </c>
-      <c r="B40" s="58" t="s">
-        <v>126</v>
+      <c r="B40" s="53" t="s">
+        <v>125</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="85" t="s">
-        <v>145</v>
+      <c r="D40" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E40" s="10">
         <f t="shared" si="10"/>
@@ -7787,23 +8220,23 @@
         <f t="shared" si="9"/>
         <v>0.19158104473902615</v>
       </c>
-      <c r="J40" s="77">
+      <c r="J40" s="72">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="K40" s="77">
+      <c r="K40" s="72">
         <f t="shared" si="5"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="L40" s="77">
+      <c r="L40" s="72">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="M40" s="77">
+      <c r="M40" s="72">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="N40" s="79">
+      <c r="N40" s="74">
         <f t="shared" si="7"/>
         <v>0.57499999999999984</v>
       </c>
@@ -7862,20 +8295,20 @@
       <c r="AO40" s="12">
         <v>52</v>
       </c>
-      <c r="AQ40" s="61"/>
+      <c r="AQ40" s="56"/>
     </row>
     <row r="41" spans="1:56">
-      <c r="A41" s="48">
+      <c r="A41" s="43">
         <v>40</v>
       </c>
-      <c r="B41" s="58" t="s">
-        <v>126</v>
+      <c r="B41" s="53" t="s">
+        <v>125</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="85" t="s">
-        <v>145</v>
+      <c r="D41" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E41" s="10">
         <f t="shared" si="10"/>
@@ -7897,23 +8330,23 @@
         <f t="shared" si="9"/>
         <v>0.50448537590845499</v>
       </c>
-      <c r="J41" s="77">
+      <c r="J41" s="72">
         <f t="shared" si="4"/>
         <v>0.25999999999999995</v>
       </c>
-      <c r="K41" s="77">
+      <c r="K41" s="72">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="L41" s="77">
+      <c r="L41" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="M41" s="77">
+      <c r="M41" s="72">
         <f t="shared" si="6"/>
         <v>1.4750000000000001</v>
       </c>
-      <c r="N41" s="79">
+      <c r="N41" s="74">
         <f t="shared" si="7"/>
         <v>1.7</v>
       </c>
@@ -7972,20 +8405,20 @@
       <c r="AO41" s="12">
         <v>32</v>
       </c>
-      <c r="AQ41" s="61"/>
+      <c r="AQ41" s="56"/>
     </row>
     <row r="42" spans="1:56">
-      <c r="A42" s="48">
+      <c r="A42" s="43">
         <v>41</v>
       </c>
-      <c r="B42" s="58" t="s">
-        <v>126</v>
+      <c r="B42" s="53" t="s">
+        <v>125</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="85" t="s">
-        <v>145</v>
+      <c r="D42" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E42" s="10">
         <f t="shared" si="10"/>
@@ -8007,23 +8440,23 @@
         <f t="shared" si="9"/>
         <v>0.14675987714106875</v>
       </c>
-      <c r="J42" s="77">
+      <c r="J42" s="72">
         <f t="shared" si="4"/>
         <v>0.16499999999999998</v>
       </c>
-      <c r="K42" s="77">
+      <c r="K42" s="72">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="L42" s="77">
+      <c r="L42" s="72">
         <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
-      <c r="M42" s="77">
+      <c r="M42" s="72">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="N42" s="79">
+      <c r="N42" s="74">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
@@ -8082,20 +8515,20 @@
       <c r="AO42" s="12">
         <v>111</v>
       </c>
-      <c r="AQ42" s="61"/>
+      <c r="AQ42" s="56"/>
     </row>
     <row r="43" spans="1:56">
-      <c r="A43" s="48">
+      <c r="A43" s="43">
         <v>42</v>
       </c>
-      <c r="B43" s="58" t="s">
-        <v>126</v>
+      <c r="B43" s="53" t="s">
+        <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="85" t="s">
-        <v>145</v>
+      <c r="D43" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E43" s="10">
         <f t="shared" si="10"/>
@@ -8117,23 +8550,23 @@
         <f t="shared" si="9"/>
         <v>6.9131662884577416</v>
       </c>
-      <c r="J43" s="77">
+      <c r="J43" s="72">
         <f t="shared" si="4"/>
         <v>49.895000000000003</v>
       </c>
-      <c r="K43" s="77">
+      <c r="K43" s="72">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="L43" s="77">
+      <c r="L43" s="72">
         <f t="shared" si="8"/>
         <v>56.650000000000006</v>
       </c>
-      <c r="M43" s="77">
+      <c r="M43" s="72">
         <f t="shared" si="6"/>
         <v>61.224999999999994</v>
       </c>
-      <c r="N43" s="79">
+      <c r="N43" s="74">
         <f t="shared" si="7"/>
         <v>70.73</v>
       </c>
@@ -8192,101 +8625,101 @@
       <c r="AO43" s="12">
         <v>722</v>
       </c>
-      <c r="AQ43" s="61"/>
+      <c r="AQ43" s="56"/>
     </row>
     <row r="44" spans="1:56" s="2" customFormat="1">
-      <c r="A44" s="49">
+      <c r="A44" s="44">
         <v>43</v>
       </c>
-      <c r="B44" s="60" t="s">
-        <v>126</v>
+      <c r="B44" s="55" t="s">
+        <v>125</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="44">
+      <c r="D44" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="39">
         <f t="shared" si="10"/>
         <v>21.4</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="39">
         <f>MAX($O44:AB44)</f>
         <v>46.7</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="39">
         <f t="shared" si="11"/>
         <v>28.085714285714289</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="39">
         <f t="shared" si="12"/>
         <v>26.05</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="39">
         <f t="shared" si="9"/>
         <v>7.0148038124720609</v>
       </c>
-      <c r="J44" s="78">
+      <c r="J44" s="73">
         <f t="shared" si="4"/>
         <v>21.984999999999999</v>
       </c>
-      <c r="K44" s="78">
+      <c r="K44" s="73">
         <f t="shared" si="5"/>
         <v>23.25</v>
       </c>
-      <c r="L44" s="78">
+      <c r="L44" s="73">
         <f t="shared" si="8"/>
         <v>26.05</v>
       </c>
-      <c r="M44" s="78">
+      <c r="M44" s="73">
         <f t="shared" si="6"/>
         <v>30.575000000000003</v>
       </c>
-      <c r="N44" s="80">
+      <c r="N44" s="75">
         <f t="shared" si="7"/>
         <v>40.524999999999999</v>
       </c>
-      <c r="O44" s="42">
+      <c r="O44" s="37">
         <v>37.200000000000003</v>
       </c>
-      <c r="P44" s="42">
+      <c r="P44" s="37">
         <v>22.3</v>
       </c>
-      <c r="Q44" s="42">
+      <c r="Q44" s="37">
         <v>46.7</v>
       </c>
-      <c r="R44" s="42">
+      <c r="R44" s="37">
         <v>26.1</v>
       </c>
-      <c r="S44" s="42">
+      <c r="S44" s="37">
         <v>32.1</v>
       </c>
-      <c r="T44" s="42">
+      <c r="T44" s="37">
         <v>26</v>
       </c>
-      <c r="U44" s="42">
+      <c r="U44" s="37">
         <v>21.4</v>
       </c>
-      <c r="V44" s="42">
+      <c r="V44" s="37">
         <v>23.8</v>
       </c>
-      <c r="W44" s="42">
+      <c r="W44" s="37">
         <v>30.5</v>
       </c>
-      <c r="X44" s="42">
+      <c r="X44" s="37">
         <v>23.1</v>
       </c>
-      <c r="Y44" s="42">
+      <c r="Y44" s="37">
         <v>30.6</v>
       </c>
-      <c r="Z44" s="42">
+      <c r="Z44" s="37">
         <v>27.3</v>
       </c>
-      <c r="AA44" s="42">
+      <c r="AA44" s="37">
         <v>22.4</v>
       </c>
-      <c r="AB44" s="43">
+      <c r="AB44" s="38">
         <v>23.7</v>
       </c>
       <c r="AG44" s="2">
@@ -8301,23 +8734,23 @@
       <c r="AO44" s="2">
         <v>3600</v>
       </c>
-      <c r="AP44" s="49"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="75"/>
-      <c r="BD44" s="49"/>
+      <c r="AP44" s="44"/>
+      <c r="AQ44" s="57"/>
+      <c r="AR44" s="70"/>
+      <c r="BD44" s="44"/>
     </row>
     <row r="45" spans="1:56" ht="14" customHeight="1">
-      <c r="A45" s="48">
+      <c r="A45" s="43">
         <v>44</v>
       </c>
-      <c r="B45" s="58" t="s">
-        <v>128</v>
+      <c r="B45" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="85" t="s">
-        <v>145</v>
+      <c r="D45" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E45" s="10">
         <f t="shared" si="10"/>
@@ -8339,23 +8772,23 @@
         <f t="shared" si="9"/>
         <v>0.53328754382190735</v>
       </c>
-      <c r="J45" s="77">
+      <c r="J45" s="72">
         <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
-      <c r="K45" s="77">
+      <c r="K45" s="72">
         <f t="shared" si="5"/>
         <v>3.3249999999999997</v>
       </c>
-      <c r="L45" s="77">
+      <c r="L45" s="72">
         <f t="shared" si="8"/>
         <v>3.7</v>
       </c>
-      <c r="M45" s="77">
+      <c r="M45" s="72">
         <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
-      <c r="N45" s="79">
+      <c r="N45" s="74">
         <f t="shared" si="7"/>
         <v>4.5750000000000002</v>
       </c>
@@ -8414,20 +8847,20 @@
       <c r="AO45" s="12">
         <v>69</v>
       </c>
-      <c r="AQ45" s="61"/>
+      <c r="AQ45" s="56"/>
     </row>
     <row r="46" spans="1:56">
-      <c r="A46" s="48">
+      <c r="A46" s="43">
         <v>45</v>
       </c>
-      <c r="B46" s="58" t="s">
-        <v>128</v>
+      <c r="B46" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="85" t="s">
-        <v>145</v>
+      <c r="D46" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E46" s="10">
         <f t="shared" si="10"/>
@@ -8449,23 +8882,23 @@
         <f t="shared" si="9"/>
         <v>1.1174932701323876</v>
       </c>
-      <c r="J46" s="77">
+      <c r="J46" s="72">
         <f t="shared" si="4"/>
         <v>7.8649999999999993</v>
       </c>
-      <c r="K46" s="77">
+      <c r="K46" s="72">
         <f t="shared" si="5"/>
         <v>9.7249999999999996</v>
       </c>
-      <c r="L46" s="77">
+      <c r="L46" s="72">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="M46" s="77">
+      <c r="M46" s="72">
         <f t="shared" si="6"/>
         <v>10.35</v>
       </c>
-      <c r="N46" s="79">
+      <c r="N46" s="74">
         <f t="shared" si="7"/>
         <v>10.68</v>
       </c>
@@ -8524,20 +8957,20 @@
       <c r="AO46" s="12">
         <v>2023</v>
       </c>
-      <c r="AQ46" s="61"/>
+      <c r="AQ46" s="56"/>
     </row>
     <row r="47" spans="1:56">
-      <c r="A47" s="48">
+      <c r="A47" s="43">
         <v>46</v>
       </c>
-      <c r="B47" s="58" t="s">
-        <v>128</v>
+      <c r="B47" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="85" t="s">
-        <v>145</v>
+      <c r="D47" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E47" s="10">
         <f t="shared" si="10"/>
@@ -8559,23 +8992,23 @@
         <f t="shared" si="9"/>
         <v>0.72293662421913796</v>
       </c>
-      <c r="J47" s="77">
+      <c r="J47" s="72">
         <f t="shared" si="4"/>
         <v>0.99500000000000011</v>
       </c>
-      <c r="K47" s="77">
+      <c r="K47" s="72">
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="L47" s="77">
+      <c r="L47" s="72">
         <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
-      <c r="M47" s="77">
+      <c r="M47" s="72">
         <f t="shared" si="6"/>
         <v>2.6750000000000003</v>
       </c>
-      <c r="N47" s="79">
+      <c r="N47" s="74">
         <f t="shared" si="7"/>
         <v>3.21</v>
       </c>
@@ -8634,20 +9067,20 @@
       <c r="AO47" s="12">
         <v>51</v>
       </c>
-      <c r="AQ47" s="61"/>
+      <c r="AQ47" s="56"/>
     </row>
     <row r="48" spans="1:56">
-      <c r="A48" s="48">
+      <c r="A48" s="43">
         <v>47</v>
       </c>
-      <c r="B48" s="58" t="s">
-        <v>128</v>
+      <c r="B48" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="85" t="s">
-        <v>145</v>
+      <c r="D48" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E48" s="10">
         <f t="shared" si="10"/>
@@ -8669,23 +9102,23 @@
         <f t="shared" si="9"/>
         <v>1.0064899294190521</v>
       </c>
-      <c r="J48" s="77">
+      <c r="J48" s="72">
         <f t="shared" si="4"/>
         <v>4.9749999999999996</v>
       </c>
-      <c r="K48" s="77">
+      <c r="K48" s="72">
         <f t="shared" si="5"/>
         <v>6.125</v>
       </c>
-      <c r="L48" s="77">
+      <c r="L48" s="72">
         <f t="shared" si="8"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="M48" s="77">
+      <c r="M48" s="72">
         <f t="shared" si="6"/>
         <v>7.4</v>
       </c>
-      <c r="N48" s="79">
+      <c r="N48" s="74">
         <f t="shared" si="7"/>
         <v>7.6349999999999998</v>
       </c>
@@ -8744,20 +9177,20 @@
       <c r="AO48" s="12">
         <v>1267</v>
       </c>
-      <c r="AQ48" s="61"/>
+      <c r="AQ48" s="56"/>
     </row>
     <row r="49" spans="1:56">
-      <c r="A49" s="48">
+      <c r="A49" s="43">
         <v>48</v>
       </c>
-      <c r="B49" s="58" t="s">
-        <v>128</v>
+      <c r="B49" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="85" t="s">
-        <v>145</v>
+      <c r="D49" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E49" s="10">
         <f t="shared" si="10"/>
@@ -8779,23 +9212,23 @@
         <f t="shared" si="9"/>
         <v>0.53292681393507235</v>
       </c>
-      <c r="J49" s="77">
+      <c r="J49" s="72">
         <f t="shared" si="4"/>
         <v>0.99500000000000011</v>
       </c>
-      <c r="K49" s="77">
+      <c r="K49" s="72">
         <f t="shared" si="5"/>
         <v>1.675</v>
       </c>
-      <c r="L49" s="77">
+      <c r="L49" s="72">
         <f t="shared" si="8"/>
         <v>2.1</v>
       </c>
-      <c r="M49" s="77">
+      <c r="M49" s="72">
         <f t="shared" si="6"/>
         <v>2.375</v>
       </c>
-      <c r="N49" s="79">
+      <c r="N49" s="74">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
@@ -8854,20 +9287,20 @@
       <c r="AO49" s="12">
         <v>38</v>
       </c>
-      <c r="AQ49" s="61"/>
+      <c r="AQ49" s="56"/>
     </row>
     <row r="50" spans="1:56">
-      <c r="A50" s="48">
+      <c r="A50" s="43">
         <v>49</v>
       </c>
-      <c r="B50" s="58" t="s">
-        <v>128</v>
+      <c r="B50" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="85" t="s">
-        <v>145</v>
+      <c r="D50" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" si="10"/>
@@ -8889,23 +9322,23 @@
         <f t="shared" si="9"/>
         <v>0.81675449927619359</v>
       </c>
-      <c r="J50" s="77">
+      <c r="J50" s="72">
         <f t="shared" si="4"/>
         <v>3.665</v>
       </c>
-      <c r="K50" s="77">
+      <c r="K50" s="72">
         <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="L50" s="77">
+      <c r="L50" s="72">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M50" s="77">
+      <c r="M50" s="72">
         <f t="shared" si="6"/>
         <v>5.55</v>
       </c>
-      <c r="N50" s="79">
+      <c r="N50" s="74">
         <f t="shared" si="7"/>
         <v>6.0350000000000001</v>
       </c>
@@ -8964,20 +9397,20 @@
       <c r="AO50" s="12">
         <v>1068</v>
       </c>
-      <c r="AQ50" s="61"/>
+      <c r="AQ50" s="56"/>
     </row>
     <row r="51" spans="1:56">
-      <c r="A51" s="48">
+      <c r="A51" s="43">
         <v>50</v>
       </c>
-      <c r="B51" s="58" t="s">
-        <v>128</v>
+      <c r="B51" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="85" t="s">
-        <v>145</v>
+      <c r="D51" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" si="10"/>
@@ -8999,23 +9432,23 @@
         <f t="shared" si="9"/>
         <v>3.3110537481407532</v>
       </c>
-      <c r="J51" s="77">
+      <c r="J51" s="72">
         <f t="shared" si="4"/>
         <v>0.69500000000000006</v>
       </c>
-      <c r="K51" s="77">
+      <c r="K51" s="72">
         <f t="shared" si="5"/>
         <v>3.1749999999999998</v>
       </c>
-      <c r="L51" s="77">
+      <c r="L51" s="72">
         <f t="shared" si="8"/>
         <v>5.75</v>
       </c>
-      <c r="M51" s="77">
+      <c r="M51" s="72">
         <f t="shared" si="6"/>
         <v>7.5750000000000002</v>
       </c>
-      <c r="N51" s="79">
+      <c r="N51" s="74">
         <f t="shared" si="7"/>
         <v>10.7</v>
       </c>
@@ -9074,20 +9507,20 @@
       <c r="AO51" s="12">
         <v>117</v>
       </c>
-      <c r="AQ51" s="61"/>
+      <c r="AQ51" s="56"/>
     </row>
     <row r="52" spans="1:56">
-      <c r="A52" s="48">
+      <c r="A52" s="43">
         <v>51</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>128</v>
+      <c r="B52" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="85" t="s">
-        <v>145</v>
+      <c r="D52" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" si="10"/>
@@ -9109,23 +9542,23 @@
         <f t="shared" si="9"/>
         <v>1.9795798199962196</v>
       </c>
-      <c r="J52" s="77">
+      <c r="J52" s="72">
         <f t="shared" si="4"/>
         <v>1.0149999999999999</v>
       </c>
-      <c r="K52" s="77">
+      <c r="K52" s="72">
         <f t="shared" si="5"/>
         <v>1.575</v>
       </c>
-      <c r="L52" s="77">
+      <c r="L52" s="72">
         <f t="shared" si="8"/>
         <v>2.15</v>
       </c>
-      <c r="M52" s="77">
+      <c r="M52" s="72">
         <f t="shared" si="6"/>
         <v>4.1749999999999998</v>
       </c>
-      <c r="N52" s="79">
+      <c r="N52" s="74">
         <f t="shared" si="7"/>
         <v>6.7050000000000001</v>
       </c>
@@ -9184,20 +9617,20 @@
       <c r="AO52" s="12">
         <v>550</v>
       </c>
-      <c r="AQ52" s="61"/>
+      <c r="AQ52" s="56"/>
     </row>
     <row r="53" spans="1:56">
-      <c r="A53" s="48">
+      <c r="A53" s="43">
         <v>52</v>
       </c>
-      <c r="B53" s="58" t="s">
-        <v>128</v>
+      <c r="B53" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="85" t="s">
-        <v>145</v>
+      <c r="D53" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="10"/>
@@ -9219,23 +9652,23 @@
         <f t="shared" si="9"/>
         <v>0.42329165379891948</v>
       </c>
-      <c r="J53" s="77">
+      <c r="J53" s="72">
         <f t="shared" si="4"/>
         <v>0.42999999999999994</v>
       </c>
-      <c r="K53" s="77">
+      <c r="K53" s="72">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="L53" s="77">
+      <c r="L53" s="72">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
-      <c r="M53" s="77">
+      <c r="M53" s="72">
         <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N53" s="79">
+      <c r="N53" s="74">
         <f t="shared" si="7"/>
         <v>1.7</v>
       </c>
@@ -9294,101 +9727,101 @@
       <c r="AO53" s="12">
         <v>20</v>
       </c>
-      <c r="AQ53" s="61"/>
+      <c r="AQ53" s="56"/>
     </row>
     <row r="54" spans="1:56" s="2" customFormat="1">
-      <c r="A54" s="49">
+      <c r="A54" s="44">
         <v>53</v>
       </c>
-      <c r="B54" s="60" t="s">
-        <v>128</v>
+      <c r="B54" s="55" t="s">
+        <v>127</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="44">
+      <c r="D54" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="39">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F54" s="39">
         <f>MAX($O54:AB54)</f>
         <v>0.8</v>
       </c>
-      <c r="G54" s="44">
+      <c r="G54" s="39">
         <f t="shared" si="11"/>
         <v>0.52857142857142858</v>
       </c>
-      <c r="H54" s="44">
+      <c r="H54" s="39">
         <f t="shared" si="12"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I54" s="44">
+      <c r="I54" s="39">
         <f t="shared" si="9"/>
         <v>0.16374732612530429</v>
       </c>
-      <c r="J54" s="78">
+      <c r="J54" s="73">
         <f t="shared" si="4"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="K54" s="78">
+      <c r="K54" s="73">
         <f t="shared" si="5"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="L54" s="78">
+      <c r="L54" s="73">
         <f t="shared" si="8"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M54" s="78">
+      <c r="M54" s="73">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="N54" s="80">
+      <c r="N54" s="75">
         <f t="shared" si="7"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="O54" s="42">
+      <c r="O54" s="37">
         <v>0.5</v>
       </c>
-      <c r="P54" s="42">
+      <c r="P54" s="37">
         <v>0.3</v>
       </c>
-      <c r="Q54" s="42">
+      <c r="Q54" s="37">
         <v>0.7</v>
       </c>
-      <c r="R54" s="42">
+      <c r="R54" s="37">
         <v>0.6</v>
       </c>
-      <c r="S54" s="42">
+      <c r="S54" s="37">
         <v>0.4</v>
       </c>
-      <c r="T54" s="42">
+      <c r="T54" s="37">
         <v>0.6</v>
       </c>
-      <c r="U54" s="42">
+      <c r="U54" s="37">
         <v>0.5</v>
       </c>
-      <c r="V54" s="42">
+      <c r="V54" s="37">
         <v>0.6</v>
       </c>
-      <c r="W54" s="42">
+      <c r="W54" s="37">
         <v>0.4</v>
       </c>
-      <c r="X54" s="42">
+      <c r="X54" s="37">
         <v>0.5</v>
       </c>
-      <c r="Y54" s="42">
+      <c r="Y54" s="37">
         <v>0.8</v>
       </c>
-      <c r="Z54" s="42">
+      <c r="Z54" s="37">
         <v>0.2</v>
       </c>
-      <c r="AA54" s="42">
+      <c r="AA54" s="37">
         <v>0.7</v>
       </c>
-      <c r="AB54" s="43">
+      <c r="AB54" s="38">
         <v>0.6</v>
       </c>
       <c r="AG54" s="2">
@@ -9403,10 +9836,10 @@
       <c r="AO54" s="2">
         <v>121</v>
       </c>
-      <c r="AP54" s="49"/>
-      <c r="AQ54" s="62"/>
-      <c r="AR54" s="75"/>
-      <c r="BD54" s="49"/>
+      <c r="AP54" s="44"/>
+      <c r="AQ54" s="57"/>
+      <c r="AR54" s="70"/>
+      <c r="BD54" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/opengov/sds2011.xlsx
+++ b/opengov/sds2011.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="560" windowWidth="25040" windowHeight="14140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="prevelence" sheetId="19" r:id="rId1"/>
-    <sheet name="fact" sheetId="14" r:id="rId2"/>
-    <sheet name="summarymatrix" sheetId="11" r:id="rId3"/>
+    <sheet name="prevelence_by_year" sheetId="20" r:id="rId2"/>
+    <sheet name="fact" sheetId="14" r:id="rId3"/>
+    <sheet name="summary_matrix" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fact!$A$1:$C$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">fact!$A$1:$C$155</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="183">
   <si>
     <t>metric</t>
   </si>
@@ -567,6 +568,12 @@
   </si>
   <si>
     <t>% of diabetes pop with HbA1c recorded</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>midyrpe</t>
   </si>
 </sst>
 </file>
@@ -893,7 +900,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,6 +1106,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="91">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1491,7 +1499,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2100,10 +2108,1450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="101" customFormat="1">
+      <c r="A1" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>2011</v>
+      </c>
+      <c r="C2">
+        <v>2221</v>
+      </c>
+      <c r="D2">
+        <v>17919</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>366860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>2011</v>
+      </c>
+      <c r="C3">
+        <v>614</v>
+      </c>
+      <c r="D3">
+        <v>4846</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>112870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>2011</v>
+      </c>
+      <c r="C4">
+        <v>893</v>
+      </c>
+      <c r="D4">
+        <v>7236</v>
+      </c>
+      <c r="E4">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>148190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>2011</v>
+      </c>
+      <c r="C5">
+        <v>1969</v>
+      </c>
+      <c r="D5">
+        <v>16164</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>364945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>1606</v>
+      </c>
+      <c r="D6">
+        <v>12528</v>
+      </c>
+      <c r="E6">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>293386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>2011</v>
+      </c>
+      <c r="C7">
+        <v>3053</v>
+      </c>
+      <c r="D7">
+        <v>20902</v>
+      </c>
+      <c r="E7">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>550620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8">
+        <v>6180</v>
+      </c>
+      <c r="D8">
+        <v>50005</v>
+      </c>
+      <c r="E8">
+        <v>527</v>
+      </c>
+      <c r="F8">
+        <v>1203870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>2011</v>
+      </c>
+      <c r="C9">
+        <v>1758</v>
+      </c>
+      <c r="D9">
+        <v>12479</v>
+      </c>
+      <c r="E9">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>310830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>3513</v>
+      </c>
+      <c r="D10">
+        <v>24998</v>
+      </c>
+      <c r="E10">
+        <v>118</v>
+      </c>
+      <c r="F10">
+        <v>562477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>2011</v>
+      </c>
+      <c r="C11">
+        <v>4175</v>
+      </c>
+      <c r="D11">
+        <v>29551</v>
+      </c>
+      <c r="E11">
+        <v>298</v>
+      </c>
+      <c r="F11">
+        <v>836711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>853</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>20110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>2011</v>
+      </c>
+      <c r="C13">
+        <v>124</v>
+      </c>
+      <c r="D13">
+        <v>871</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>2011</v>
+      </c>
+      <c r="C14">
+        <v>1864</v>
+      </c>
+      <c r="D14">
+        <v>18104</v>
+      </c>
+      <c r="E14">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>402641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15">
+        <v>182</v>
+      </c>
+      <c r="D15">
+        <v>1058</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>26190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>2010</v>
+      </c>
+      <c r="C16">
+        <v>2238</v>
+      </c>
+      <c r="D16">
+        <v>16775</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>367160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>2010</v>
+      </c>
+      <c r="C17">
+        <v>601</v>
+      </c>
+      <c r="D17">
+        <v>4728</v>
+      </c>
+      <c r="E17">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>112680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>2010</v>
+      </c>
+      <c r="C18">
+        <v>888</v>
+      </c>
+      <c r="D18">
+        <v>6836</v>
+      </c>
+      <c r="E18">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>148510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>1911</v>
+      </c>
+      <c r="D19">
+        <v>15480</v>
+      </c>
+      <c r="E19">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>363385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>2010</v>
+      </c>
+      <c r="C20">
+        <v>1568</v>
+      </c>
+      <c r="D20">
+        <v>12007</v>
+      </c>
+      <c r="E20">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>291383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>2010</v>
+      </c>
+      <c r="C21">
+        <v>3045</v>
+      </c>
+      <c r="D21">
+        <v>20227</v>
+      </c>
+      <c r="E21">
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <v>544980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>2010</v>
+      </c>
+      <c r="C22">
+        <v>6115</v>
+      </c>
+      <c r="D22">
+        <v>48090</v>
+      </c>
+      <c r="E22">
+        <v>265</v>
+      </c>
+      <c r="F22">
+        <v>1199026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>2010</v>
+      </c>
+      <c r="C23">
+        <v>1706</v>
+      </c>
+      <c r="D23">
+        <v>12100</v>
+      </c>
+      <c r="E23">
+        <v>108</v>
+      </c>
+      <c r="F23">
+        <v>310530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>2010</v>
+      </c>
+      <c r="C24">
+        <v>3480</v>
+      </c>
+      <c r="D24">
+        <v>23840</v>
+      </c>
+      <c r="E24">
+        <v>130</v>
+      </c>
+      <c r="F24">
+        <v>562215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>2010</v>
+      </c>
+      <c r="C25">
+        <v>4109</v>
+      </c>
+      <c r="D25">
+        <v>28279</v>
+      </c>
+      <c r="E25">
+        <v>329</v>
+      </c>
+      <c r="F25">
+        <v>826231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>2010</v>
+      </c>
+      <c r="C26">
+        <v>116</v>
+      </c>
+      <c r="D26">
+        <v>807</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>19960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>2010</v>
+      </c>
+      <c r="C27">
+        <v>119</v>
+      </c>
+      <c r="D27">
+        <v>834</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>22210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>2010</v>
+      </c>
+      <c r="C28">
+        <v>1837</v>
+      </c>
+      <c r="D28">
+        <v>17283</v>
+      </c>
+      <c r="E28">
+        <v>103</v>
+      </c>
+      <c r="F28">
+        <v>399550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>2010</v>
+      </c>
+      <c r="C29">
+        <v>177</v>
+      </c>
+      <c r="D29">
+        <v>993</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>26180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>2009</v>
+      </c>
+      <c r="C30">
+        <v>2234</v>
+      </c>
+      <c r="D30">
+        <v>15754</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>367510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>2009</v>
+      </c>
+      <c r="C31">
+        <v>596</v>
+      </c>
+      <c r="D31">
+        <v>4530</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>112430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>2009</v>
+      </c>
+      <c r="C32">
+        <v>871</v>
+      </c>
+      <c r="D32">
+        <v>6453</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>148580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>2009</v>
+      </c>
+      <c r="C33">
+        <v>1896</v>
+      </c>
+      <c r="D33">
+        <v>14718</v>
+      </c>
+      <c r="E33">
+        <v>52</v>
+      </c>
+      <c r="F33">
+        <v>361815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34">
+        <v>2009</v>
+      </c>
+      <c r="C34">
+        <v>1526</v>
+      </c>
+      <c r="D34">
+        <v>11543</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>290047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35">
+        <v>2009</v>
+      </c>
+      <c r="C35">
+        <v>2976</v>
+      </c>
+      <c r="D35">
+        <v>19361</v>
+      </c>
+      <c r="E35">
+        <v>53</v>
+      </c>
+      <c r="F35">
+        <v>539630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>2009</v>
+      </c>
+      <c r="C36">
+        <v>5923</v>
+      </c>
+      <c r="D36">
+        <v>46345</v>
+      </c>
+      <c r="E36">
+        <v>203</v>
+      </c>
+      <c r="F36">
+        <v>1194675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37">
+        <v>2009</v>
+      </c>
+      <c r="C37">
+        <v>1688</v>
+      </c>
+      <c r="D37">
+        <v>11470</v>
+      </c>
+      <c r="E37">
+        <v>28</v>
+      </c>
+      <c r="F37">
+        <v>309900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <v>2009</v>
+      </c>
+      <c r="C38">
+        <v>3454</v>
+      </c>
+      <c r="D38">
+        <v>22794</v>
+      </c>
+      <c r="E38">
+        <v>54</v>
+      </c>
+      <c r="F38">
+        <v>561174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>2009</v>
+      </c>
+      <c r="C39">
+        <v>4019</v>
+      </c>
+      <c r="D39">
+        <v>27506</v>
+      </c>
+      <c r="E39">
+        <v>215</v>
+      </c>
+      <c r="F39">
+        <v>817727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>2009</v>
+      </c>
+      <c r="C40">
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <v>776</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>19890</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>2009</v>
+      </c>
+      <c r="C41">
+        <v>114</v>
+      </c>
+      <c r="D41">
+        <v>792</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>21980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>2009</v>
+      </c>
+      <c r="C42">
+        <v>1771</v>
+      </c>
+      <c r="D42">
+        <v>16283</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+      <c r="F42">
+        <v>396942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43">
+        <v>2009</v>
+      </c>
+      <c r="C43">
+        <v>181</v>
+      </c>
+      <c r="D43">
+        <v>939</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>2008</v>
+      </c>
+      <c r="C44">
+        <v>2209</v>
+      </c>
+      <c r="D44">
+        <v>14764</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>367020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>2008</v>
+      </c>
+      <c r="C45">
+        <v>596</v>
+      </c>
+      <c r="D45">
+        <v>4295</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>111430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>2008</v>
+      </c>
+      <c r="C46">
+        <v>884</v>
+      </c>
+      <c r="D46">
+        <v>6098</v>
+      </c>
+      <c r="E46">
+        <v>21</v>
+      </c>
+      <c r="F46">
+        <v>148300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>2008</v>
+      </c>
+      <c r="C47">
+        <v>1826</v>
+      </c>
+      <c r="D47">
+        <v>14041</v>
+      </c>
+      <c r="E47">
+        <v>70</v>
+      </c>
+      <c r="F47">
+        <v>360428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>2008</v>
+      </c>
+      <c r="C48">
+        <v>1501</v>
+      </c>
+      <c r="D48">
+        <v>11153</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>288473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49">
+        <v>2008</v>
+      </c>
+      <c r="C49">
+        <v>2971</v>
+      </c>
+      <c r="D49">
+        <v>18048</v>
+      </c>
+      <c r="E49">
+        <v>126</v>
+      </c>
+      <c r="F49">
+        <v>535290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>2008</v>
+      </c>
+      <c r="C50">
+        <v>6348</v>
+      </c>
+      <c r="D50">
+        <v>45639</v>
+      </c>
+      <c r="E50">
+        <v>346</v>
+      </c>
+      <c r="F50">
+        <v>1192419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51">
+        <v>2008</v>
+      </c>
+      <c r="C51">
+        <v>1673</v>
+      </c>
+      <c r="D51">
+        <v>11131</v>
+      </c>
+      <c r="E51">
+        <v>38</v>
+      </c>
+      <c r="F51">
+        <v>308790</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52">
+        <v>2008</v>
+      </c>
+      <c r="C52">
+        <v>3415</v>
+      </c>
+      <c r="D52">
+        <v>21452</v>
+      </c>
+      <c r="E52">
+        <v>48</v>
+      </c>
+      <c r="F52">
+        <v>560042</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53">
+        <v>2008</v>
+      </c>
+      <c r="C53">
+        <v>3933</v>
+      </c>
+      <c r="D53">
+        <v>26240</v>
+      </c>
+      <c r="E53">
+        <v>221</v>
+      </c>
+      <c r="F53">
+        <v>809764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>2008</v>
+      </c>
+      <c r="C54">
+        <v>119</v>
+      </c>
+      <c r="D54">
+        <v>746</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>19860</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55">
+        <v>2008</v>
+      </c>
+      <c r="C55">
+        <v>115</v>
+      </c>
+      <c r="D55">
+        <v>752</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>21950</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>2008</v>
+      </c>
+      <c r="C56">
+        <v>1692</v>
+      </c>
+      <c r="D56">
+        <v>15530</v>
+      </c>
+      <c r="E56">
+        <v>47</v>
+      </c>
+      <c r="F56">
+        <v>394134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57">
+        <v>2008</v>
+      </c>
+      <c r="C57">
+        <v>182</v>
+      </c>
+      <c r="D57">
+        <v>883</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>26300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>2007</v>
+      </c>
+      <c r="C58">
+        <v>2235</v>
+      </c>
+      <c r="D58">
+        <v>13590</v>
+      </c>
+      <c r="E58">
+        <v>87</v>
+      </c>
+      <c r="F58">
+        <v>366450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>2007</v>
+      </c>
+      <c r="C59">
+        <v>578</v>
+      </c>
+      <c r="D59">
+        <v>3972</v>
+      </c>
+      <c r="E59">
+        <v>46</v>
+      </c>
+      <c r="F59">
+        <v>110247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>2007</v>
+      </c>
+      <c r="C60">
+        <v>913</v>
+      </c>
+      <c r="D60">
+        <v>5745</v>
+      </c>
+      <c r="E60">
+        <v>78</v>
+      </c>
+      <c r="F60">
+        <v>148030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>2007</v>
+      </c>
+      <c r="C61">
+        <v>1860</v>
+      </c>
+      <c r="D61">
+        <v>13291</v>
+      </c>
+      <c r="E61">
+        <v>220</v>
+      </c>
+      <c r="F61">
+        <v>358858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>2007</v>
+      </c>
+      <c r="C62">
+        <v>1519</v>
+      </c>
+      <c r="D62">
+        <v>10512</v>
+      </c>
+      <c r="E62">
+        <v>123</v>
+      </c>
+      <c r="F62">
+        <v>286053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>2007</v>
+      </c>
+      <c r="C63">
+        <v>2929</v>
+      </c>
+      <c r="D63">
+        <v>16873</v>
+      </c>
+      <c r="E63">
+        <v>820</v>
+      </c>
+      <c r="F63">
+        <v>529889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64">
+        <v>2007</v>
+      </c>
+      <c r="C64">
+        <v>5875</v>
+      </c>
+      <c r="D64">
+        <v>41928</v>
+      </c>
+      <c r="E64">
+        <v>495</v>
+      </c>
+      <c r="F64">
+        <v>1191584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>2007</v>
+      </c>
+      <c r="C65">
+        <v>1631</v>
+      </c>
+      <c r="D65">
+        <v>10212</v>
+      </c>
+      <c r="E65">
+        <v>102</v>
+      </c>
+      <c r="F65">
+        <v>306701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>2007</v>
+      </c>
+      <c r="C66">
+        <v>3403</v>
+      </c>
+      <c r="D66">
+        <v>20287</v>
+      </c>
+      <c r="E66">
+        <v>149</v>
+      </c>
+      <c r="F66">
+        <v>558139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67">
+        <v>2007</v>
+      </c>
+      <c r="C67">
+        <v>3990</v>
+      </c>
+      <c r="D67">
+        <v>25176</v>
+      </c>
+      <c r="E67">
+        <v>565</v>
+      </c>
+      <c r="F67">
+        <v>801310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>2007</v>
+      </c>
+      <c r="C68">
+        <v>115</v>
+      </c>
+      <c r="D68">
+        <v>703</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>19770</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>2007</v>
+      </c>
+      <c r="C69">
+        <v>107</v>
+      </c>
+      <c r="D69">
+        <v>740</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>21880</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>2007</v>
+      </c>
+      <c r="C70">
+        <v>1854</v>
+      </c>
+      <c r="D70">
+        <v>14484</v>
+      </c>
+      <c r="E70">
+        <v>279</v>
+      </c>
+      <c r="F70">
+        <v>391639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <v>2007</v>
+      </c>
+      <c r="C71">
+        <v>167</v>
+      </c>
+      <c r="D71">
+        <v>846</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>26350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
@@ -3785,7 +5233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>

--- a/opengov/sds2011.xlsx
+++ b/opengov/sds2011.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="560" windowWidth="25040" windowHeight="14140" activeTab="1"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="20900" windowHeight="14280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="prevelence" sheetId="19" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="169">
   <si>
     <t>metric</t>
   </si>
@@ -504,49 +504,7 @@
     <t>W (%)</t>
   </si>
   <si>
-    <t>T (sig)</t>
-  </si>
-  <si>
     <t>N (n)</t>
-  </si>
-  <si>
-    <t>A (sig)</t>
-  </si>
-  <si>
-    <t>B (sig)</t>
-  </si>
-  <si>
-    <t>Y (sig)</t>
-  </si>
-  <si>
-    <t>F (sig)</t>
-  </si>
-  <si>
-    <t>V (sig)</t>
-  </si>
-  <si>
-    <t>G (sig)</t>
-  </si>
-  <si>
-    <t>N (sg)</t>
-  </si>
-  <si>
-    <t>H (sig)</t>
-  </si>
-  <si>
-    <t>L (sig)</t>
-  </si>
-  <si>
-    <t>S (sig)</t>
-  </si>
-  <si>
-    <t>R (sig)</t>
-  </si>
-  <si>
-    <t>Z (sig)</t>
-  </si>
-  <si>
-    <t>W (sig)</t>
   </si>
   <si>
     <t>median</t>
@@ -586,7 +544,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,36 +596,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC0504D"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -900,7 +840,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,18 +933,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1019,20 +950,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1044,12 +961,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1063,7 +974,25 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,34 +1001,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,7 +1410,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2110,30 +2021,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" s="101" customFormat="1">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:6" s="90" customFormat="1">
+      <c r="A1" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="101" t="s">
+      <c r="B1" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="101" t="s">
-        <v>182</v>
+      <c r="F1" s="90" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3551,7 +3462,7 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
@@ -3563,7 +3474,7 @@
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="86" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -3580,7 +3491,7 @@
       <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="88" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4062,7 +3973,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>66</v>
@@ -4076,7 +3987,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>66</v>
@@ -4084,13 +3995,13 @@
       <c r="C31" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="89">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>66</v>
@@ -4104,7 +4015,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -4118,7 +4029,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
@@ -4132,7 +4043,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>66</v>
@@ -4146,7 +4057,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>66</v>
@@ -4160,7 +4071,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>66</v>
@@ -4174,7 +4085,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -4188,7 +4099,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>66</v>
@@ -4202,7 +4113,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>66</v>
@@ -4216,7 +4127,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>66</v>
@@ -4230,7 +4141,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>66</v>
@@ -4243,8 +4154,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1">
-      <c r="A43" s="98" t="s">
-        <v>180</v>
+      <c r="A43" s="87" t="s">
+        <v>166</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>66</v>
@@ -4258,7 +4169,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>68</v>
@@ -4272,7 +4183,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>68</v>
@@ -4280,13 +4191,13 @@
       <c r="C45" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="100">
+      <c r="E45" s="89">
         <v>89.4</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>68</v>
@@ -4300,7 +4211,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>68</v>
@@ -4314,7 +4225,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>68</v>
@@ -4328,7 +4239,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>68</v>
@@ -4342,7 +4253,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>68</v>
@@ -4356,7 +4267,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>68</v>
@@ -4370,7 +4281,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>68</v>
@@ -4384,7 +4295,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>68</v>
@@ -4398,7 +4309,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>68</v>
@@ -4412,7 +4323,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>68</v>
@@ -4426,7 +4337,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>68</v>
@@ -4439,8 +4350,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1">
-      <c r="A57" s="98" t="s">
-        <v>180</v>
+      <c r="A57" s="87" t="s">
+        <v>166</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>68</v>
@@ -5238,13 +5149,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:BM54"/>
+  <dimension ref="A1:AY54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10:AB10"/>
+      <selection pane="bottomRight" activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5252,7 +5163,7 @@
     <col min="1" max="1" width="5" style="43" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="69" customWidth="1"/>
     <col min="5" max="9" width="12.5" style="10" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" style="43"/>
     <col min="15" max="27" width="7.33203125" style="5" customWidth="1"/>
@@ -5260,185 +5171,138 @@
     <col min="29" max="40" width="8" style="4" customWidth="1"/>
     <col min="41" max="41" width="8.33203125" style="4" customWidth="1"/>
     <col min="42" max="42" width="8.33203125" style="43" customWidth="1"/>
-    <col min="43" max="43" width="8.5" style="10" customWidth="1"/>
-    <col min="44" max="44" width="8.5" style="69" customWidth="1"/>
-    <col min="45" max="54" width="8.5" style="4" customWidth="1"/>
-    <col min="55" max="55" width="7.83203125" style="4" customWidth="1"/>
-    <col min="56" max="56" width="8.5" style="43" customWidth="1"/>
-    <col min="66" max="16384" width="8.83203125" style="4"/>
+    <col min="52" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="3" customFormat="1">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:42" s="3" customFormat="1">
+      <c r="A1" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="82" t="s">
+      <c r="H1" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="M1" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" s="87" t="s">
+      <c r="J1" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="87" t="s">
+      <c r="P1" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="87" t="s">
+      <c r="R1" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="S1" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="T1" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="87" t="s">
+      <c r="U1" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="V1" s="87" t="s">
+      <c r="V1" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="87" t="s">
+      <c r="W1" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="X1" s="87" t="s">
+      <c r="X1" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="Y1" s="87" t="s">
+      <c r="Y1" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="Z1" s="87" t="s">
+      <c r="Z1" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="AA1" s="87" t="s">
+      <c r="AA1" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="AB1" s="88" t="s">
+      <c r="AB1" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="89" t="s">
+      <c r="AC1" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="89" t="s">
+      <c r="AD1" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="89" t="s">
+      <c r="AE1" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="89" t="s">
+      <c r="AF1" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="89" t="s">
+      <c r="AG1" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" s="89" t="s">
+      <c r="AH1" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ1" s="89" t="s">
+      <c r="AI1" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ1" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="89" t="s">
+      <c r="AK1" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" s="89" t="s">
+      <c r="AL1" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="89" t="s">
+      <c r="AM1" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="89" t="s">
+      <c r="AN1" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" s="89" t="s">
+      <c r="AO1" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="90" t="s">
+      <c r="AP1" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR1" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS1" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT1" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU1" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV1" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW1" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX1" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY1" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ1" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="BA1" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB1" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC1" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD1" s="77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" s="7" customFormat="1" ht="14" customHeight="1">
+    </row>
+    <row r="2" spans="1:42" s="7" customFormat="1" ht="14" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -5448,7 +5312,7 @@
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="67" t="s">
         <v>143</v>
       </c>
       <c r="E2" s="10">
@@ -5471,23 +5335,23 @@
         <f t="shared" ref="I2:I17" si="3">STDEV($O2:$AB2)</f>
         <v>7.7032888651964018E-2</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="63">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.05)</f>
         <v>0.5</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="63">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.25)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="63">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.5)</f>
         <v>0.6</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="63">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.75)</f>
         <v>0.6</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="65">
         <f>_xlfn.PERCENTILE.INC($O2:$AB2,0.95)</f>
         <v>0.66999999999999993</v>
       </c>
@@ -5546,11 +5410,8 @@
         <v>1864</v>
       </c>
       <c r="AP2" s="51"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="66"/>
-      <c r="BD2" s="51"/>
-    </row>
-    <row r="3" spans="1:56" s="7" customFormat="1">
+    </row>
+    <row r="3" spans="1:42" s="7" customFormat="1">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -5560,7 +5421,7 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="67" t="s">
         <v>143</v>
       </c>
       <c r="E3" s="10">
@@ -5583,23 +5444,23 @@
         <f t="shared" si="3"/>
         <v>0.30318818730794395</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="63">
         <f t="shared" ref="J3:J54" si="4">_xlfn.PERCENTILE.INC($O3:$AB3,0.05)</f>
         <v>2.63</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="63">
         <f t="shared" ref="K3:K54" si="5">_xlfn.PERCENTILE.INC($O3:$AB3,0.25)</f>
         <v>2.8249999999999997</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="63">
         <f>_xlfn.PERCENTILE.INC($O3:$AB3,0.5)</f>
         <v>3</v>
       </c>
-      <c r="M3" s="72">
+      <c r="M3" s="63">
         <f t="shared" ref="M3:M54" si="6">_xlfn.PERCENTILE.INC($O3:$AB3,0.75)</f>
         <v>3.3</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="65">
         <f t="shared" ref="N3:N54" si="7">_xlfn.PERCENTILE.INC($O3:$AB3,0.95)</f>
         <v>3.4350000000000001</v>
       </c>
@@ -5658,21 +5519,18 @@
         <v>18104</v>
       </c>
       <c r="AP3" s="51"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="66"/>
-      <c r="BD3" s="51"/>
-    </row>
-    <row r="4" spans="1:56" s="12" customFormat="1">
-      <c r="A4" s="58">
+    </row>
+    <row r="4" spans="1:42" s="12" customFormat="1">
+      <c r="A4" s="56">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E4" s="11">
@@ -5695,66 +5553,66 @@
         <f t="shared" si="3"/>
         <v>6.1124984550212889E-2</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="63">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="K4" s="72">
+      <c r="K4" s="63">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="63">
         <f t="shared" ref="L4:L54" si="8">_xlfn.PERCENTILE.INC($O4:$AB4,0.5)</f>
         <v>0.6</v>
       </c>
-      <c r="M4" s="72">
+      <c r="M4" s="63">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="N4" s="74">
+      <c r="N4" s="65">
         <f t="shared" si="7"/>
         <v>0.6349999999999999</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="58">
         <v>0.6</v>
       </c>
-      <c r="P4" s="62">
+      <c r="P4" s="59">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="61">
+      <c r="Q4" s="58">
         <v>0.6</v>
       </c>
-      <c r="R4" s="61">
+      <c r="R4" s="58">
         <v>0.5</v>
       </c>
-      <c r="S4" s="61">
+      <c r="S4" s="58">
         <v>0.6</v>
       </c>
-      <c r="T4" s="61">
+      <c r="T4" s="58">
         <v>0.5</v>
       </c>
-      <c r="U4" s="61">
+      <c r="U4" s="58">
         <v>0.6</v>
       </c>
-      <c r="V4" s="61">
+      <c r="V4" s="58">
         <v>0.6</v>
       </c>
-      <c r="W4" s="61">
+      <c r="W4" s="58">
         <v>0.6</v>
       </c>
-      <c r="X4" s="61">
+      <c r="X4" s="58">
         <v>0.5</v>
       </c>
-      <c r="Y4" s="61">
+      <c r="Y4" s="58">
         <v>0.6</v>
       </c>
-      <c r="Z4" s="61">
+      <c r="Z4" s="58">
         <v>0.6</v>
       </c>
-      <c r="AA4" s="61">
+      <c r="AA4" s="58">
         <v>0.5</v>
       </c>
-      <c r="AB4" s="64">
+      <c r="AB4" s="61">
         <v>0.7</v>
       </c>
       <c r="AG4" s="12">
@@ -5769,13 +5627,9 @@
       <c r="AO4" s="12">
         <v>1864</v>
       </c>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="67"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="58"/>
-    </row>
-    <row r="5" spans="1:56">
+      <c r="AP4" s="56"/>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="43">
         <v>4</v>
       </c>
@@ -5785,7 +5639,7 @@
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E5" s="10">
@@ -5808,66 +5662,66 @@
         <f t="shared" si="3"/>
         <v>0.38949107397127447</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="63">
         <f t="shared" si="4"/>
         <v>3.6949999999999998</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="63">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="63">
         <f t="shared" si="8"/>
         <v>4.25</v>
       </c>
-      <c r="M5" s="72">
+      <c r="M5" s="63">
         <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="65">
         <f t="shared" si="7"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="O5" s="63">
+      <c r="O5" s="60">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P5" s="62">
+      <c r="P5" s="59">
         <v>4.3</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="Q5" s="60">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="60">
         <v>4.4000000000000004</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="60">
         <v>4.3</v>
       </c>
-      <c r="T5" s="63">
+      <c r="T5" s="60">
         <v>4.2</v>
       </c>
-      <c r="U5" s="63">
+      <c r="U5" s="60">
         <v>3.8</v>
       </c>
-      <c r="V5" s="63">
+      <c r="V5" s="60">
         <v>4</v>
       </c>
-      <c r="W5" s="63">
+      <c r="W5" s="60">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X5" s="63">
+      <c r="X5" s="60">
         <v>3.5</v>
       </c>
-      <c r="Y5" s="63">
+      <c r="Y5" s="60">
         <v>4.2</v>
       </c>
-      <c r="Z5" s="63">
+      <c r="Z5" s="60">
         <v>3.9</v>
       </c>
-      <c r="AA5" s="63">
+      <c r="AA5" s="60">
         <v>4.5</v>
       </c>
-      <c r="AB5" s="65">
+      <c r="AB5" s="62">
         <v>4</v>
       </c>
       <c r="AG5" s="4">
@@ -5882,11 +5736,8 @@
       <c r="AO5" s="4">
         <v>18104</v>
       </c>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="68"/>
-      <c r="BC5" s="71"/>
-    </row>
-    <row r="6" spans="1:56">
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="43">
         <v>5</v>
       </c>
@@ -5896,7 +5747,7 @@
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="10">
@@ -5919,23 +5770,23 @@
         <f t="shared" si="3"/>
         <v>0.59595707493479344</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="63">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="63">
         <f t="shared" si="5"/>
         <v>0.82500000000000007</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="63">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="M6" s="72">
+      <c r="M6" s="63">
         <f t="shared" si="6"/>
         <v>1.5250000000000001</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="65">
         <f t="shared" si="7"/>
         <v>2.1799999999999997</v>
       </c>
@@ -5993,9 +5844,8 @@
       <c r="AO6" s="4">
         <v>3528</v>
       </c>
-      <c r="AQ6" s="56"/>
-    </row>
-    <row r="7" spans="1:56" s="2" customFormat="1">
+    </row>
+    <row r="7" spans="1:42" s="2" customFormat="1">
       <c r="A7" s="44">
         <v>6</v>
       </c>
@@ -6005,7 +5855,7 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="70" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="39">
@@ -6028,23 +5878,23 @@
         <f t="shared" si="3"/>
         <v>0.33479532865306244</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="64">
         <f t="shared" si="4"/>
         <v>3.03</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="64">
         <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="64">
         <f t="shared" si="8"/>
         <v>3.55</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="64">
         <f t="shared" si="6"/>
         <v>3.875</v>
       </c>
-      <c r="N7" s="75">
+      <c r="N7" s="66">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -6103,21 +5953,18 @@
         <v>807</v>
       </c>
       <c r="AP7" s="44"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="70"/>
-      <c r="BD7" s="44"/>
-    </row>
-    <row r="8" spans="1:56" ht="14" customHeight="1">
-      <c r="A8" s="91">
+    </row>
+    <row r="8" spans="1:42" ht="14" customHeight="1">
+      <c r="A8" s="80">
         <v>7</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="10">
@@ -6140,23 +5987,23 @@
         <f t="shared" si="3"/>
         <v>3.1539962440834168</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="63">
         <f t="shared" si="4"/>
         <v>84.484999999999999</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="63">
         <f t="shared" si="5"/>
         <v>86.85</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="63">
         <f t="shared" si="8"/>
         <v>89.050000000000011</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="63">
         <f t="shared" si="6"/>
         <v>91.449999999999989</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="65">
         <f t="shared" si="7"/>
         <v>93.070000000000007</v>
       </c>
@@ -6215,19 +6062,18 @@
       <c r="AO8" s="12">
         <v>18230</v>
       </c>
-      <c r="AQ8" s="56"/>
-    </row>
-    <row r="9" spans="1:56">
-      <c r="A9" s="91">
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="80">
         <v>8</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="10">
@@ -6250,23 +6096,23 @@
         <f t="shared" si="3"/>
         <v>6.4222869159489626</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="63">
         <f t="shared" si="4"/>
         <v>80.015000000000001</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="63">
         <f t="shared" si="5"/>
         <v>83.95</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="63">
         <f t="shared" si="8"/>
         <v>87.15</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="63">
         <f t="shared" si="6"/>
         <v>93.1</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="65">
         <f t="shared" si="7"/>
         <v>97.64</v>
       </c>
@@ -6325,19 +6171,18 @@
       <c r="AO9" s="12">
         <v>1742</v>
       </c>
-      <c r="AQ9" s="56"/>
-    </row>
-    <row r="10" spans="1:56">
-      <c r="A10" s="91">
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="80">
         <v>9</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E10" s="10">
@@ -6360,23 +6205,23 @@
         <f t="shared" si="3"/>
         <v>3.2414214762682714</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="63">
         <f t="shared" si="4"/>
         <v>88.314999999999998</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="63">
         <f t="shared" si="5"/>
         <v>91.1</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="63">
         <f t="shared" si="8"/>
         <v>92.15</v>
       </c>
-      <c r="M10" s="72">
+      <c r="M10" s="63">
         <f t="shared" si="6"/>
         <v>95.674999999999997</v>
       </c>
-      <c r="N10" s="74">
+      <c r="N10" s="65">
         <f t="shared" si="7"/>
         <v>96.78</v>
       </c>
@@ -6435,19 +6280,18 @@
       <c r="AO10" s="12">
         <v>17336</v>
       </c>
-      <c r="AQ10" s="56"/>
-    </row>
-    <row r="11" spans="1:56">
-      <c r="A11" s="91">
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="80">
         <v>10</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="10">
@@ -6470,23 +6314,23 @@
         <f t="shared" si="3"/>
         <v>3.9666258809119985</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="63">
         <f t="shared" si="4"/>
         <v>79.984999999999999</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="63">
         <f t="shared" si="5"/>
         <v>83.724999999999994</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="63">
         <f t="shared" si="8"/>
         <v>86.55</v>
       </c>
-      <c r="M11" s="72">
+      <c r="M11" s="63">
         <f t="shared" si="6"/>
         <v>88.75</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="65">
         <f t="shared" si="7"/>
         <v>90.795000000000002</v>
       </c>
@@ -6545,19 +6389,18 @@
       <c r="AO11" s="12">
         <v>1619</v>
       </c>
-      <c r="AQ11" s="56"/>
-    </row>
-    <row r="12" spans="1:56">
-      <c r="A12" s="91">
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="80">
         <v>11</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="10">
@@ -6580,23 +6423,23 @@
         <f t="shared" si="3"/>
         <v>2.4795094339338641</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="63">
         <f t="shared" si="4"/>
         <v>90.39</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="63">
         <f t="shared" si="5"/>
         <v>93.125</v>
       </c>
-      <c r="L12" s="72">
+      <c r="L12" s="63">
         <f t="shared" si="8"/>
         <v>95.65</v>
       </c>
-      <c r="M12" s="72">
+      <c r="M12" s="63">
         <f t="shared" si="6"/>
         <v>96.275000000000006</v>
       </c>
-      <c r="N12" s="74">
+      <c r="N12" s="65">
         <f t="shared" si="7"/>
         <v>97.364999999999995</v>
       </c>
@@ -6655,19 +6498,18 @@
       <c r="AO12" s="12">
         <v>17424</v>
       </c>
-      <c r="AQ12" s="56"/>
-    </row>
-    <row r="13" spans="1:56">
-      <c r="A13" s="91">
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="80">
         <v>12</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="10">
@@ -6690,23 +6532,23 @@
         <f t="shared" si="3"/>
         <v>5.5792196862726513</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="63">
         <f t="shared" si="4"/>
         <v>71.795000000000002</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="63">
         <f t="shared" si="5"/>
         <v>77.974999999999994</v>
       </c>
-      <c r="L13" s="72">
+      <c r="L13" s="63">
         <f t="shared" si="8"/>
         <v>80.25</v>
       </c>
-      <c r="M13" s="72">
+      <c r="M13" s="63">
         <f t="shared" si="6"/>
         <v>82.05</v>
       </c>
-      <c r="N13" s="74">
+      <c r="N13" s="65">
         <f t="shared" si="7"/>
         <v>87.78</v>
       </c>
@@ -6765,19 +6607,18 @@
       <c r="AO13" s="12">
         <v>1394</v>
       </c>
-      <c r="AQ13" s="56"/>
-    </row>
-    <row r="14" spans="1:56">
-      <c r="A14" s="91">
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="80">
         <v>13</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="10">
@@ -6800,23 +6641,23 @@
         <f t="shared" si="3"/>
         <v>2.8394106337852465</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="63">
         <f t="shared" si="4"/>
         <v>88.225000000000009</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="63">
         <f t="shared" si="5"/>
         <v>89.375</v>
       </c>
-      <c r="L14" s="72">
+      <c r="L14" s="63">
         <f t="shared" si="8"/>
         <v>91.8</v>
       </c>
-      <c r="M14" s="72">
+      <c r="M14" s="63">
         <f t="shared" si="6"/>
         <v>94.224999999999994</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="65">
         <f t="shared" si="7"/>
         <v>95.8</v>
       </c>
@@ -6875,9 +6716,8 @@
       <c r="AO14" s="12">
         <v>17210</v>
       </c>
-      <c r="AQ14" s="56"/>
-    </row>
-    <row r="15" spans="1:56">
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="43">
         <v>14</v>
       </c>
@@ -6887,7 +6727,7 @@
       <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="10">
@@ -6910,23 +6750,23 @@
         <f t="shared" si="3"/>
         <v>1.7801253197025622</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="63">
         <f t="shared" si="4"/>
         <v>93.28</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="63">
         <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
-      <c r="L15" s="72">
+      <c r="L15" s="63">
         <f t="shared" si="8"/>
         <v>95.45</v>
       </c>
-      <c r="M15" s="72">
+      <c r="M15" s="63">
         <f t="shared" si="6"/>
         <v>95.7</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="65">
         <f t="shared" si="7"/>
         <v>98.649999999999991</v>
       </c>
@@ -6985,9 +6825,8 @@
       <c r="AO15" s="12">
         <v>1761</v>
       </c>
-      <c r="AQ15" s="56"/>
-    </row>
-    <row r="16" spans="1:56">
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="43">
         <v>15</v>
       </c>
@@ -6997,7 +6836,7 @@
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E16" s="10">
@@ -7020,23 +6859,23 @@
         <f t="shared" si="3"/>
         <v>0.43809026115981642</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="63">
         <f t="shared" si="4"/>
         <v>98.850000000000009</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="63">
         <f t="shared" si="5"/>
         <v>99.5</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L16" s="63">
         <f t="shared" si="8"/>
         <v>99.65</v>
       </c>
-      <c r="M16" s="72">
+      <c r="M16" s="63">
         <f t="shared" si="6"/>
         <v>99.8</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="65">
         <f t="shared" si="7"/>
         <v>99.9</v>
       </c>
@@ -7095,9 +6934,8 @@
       <c r="AO16" s="12">
         <v>18028</v>
       </c>
-      <c r="AQ16" s="56"/>
-    </row>
-    <row r="17" spans="1:56">
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="43">
         <v>16</v>
       </c>
@@ -7107,7 +6945,7 @@
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="10">
@@ -7130,23 +6968,23 @@
         <f t="shared" si="3"/>
         <v>5.5839300430140355</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="63">
         <f t="shared" si="4"/>
         <v>75.989999999999995</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="63">
         <f t="shared" si="5"/>
         <v>81.974999999999994</v>
       </c>
-      <c r="L17" s="72">
+      <c r="L17" s="63">
         <f t="shared" si="8"/>
         <v>86.05</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M17" s="63">
         <f t="shared" si="6"/>
         <v>88.924999999999997</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="65">
         <f t="shared" si="7"/>
         <v>91.614999999999995</v>
       </c>
@@ -7205,9 +7043,8 @@
       <c r="AO17" s="12">
         <v>1592</v>
       </c>
-      <c r="AQ17" s="56"/>
-    </row>
-    <row r="18" spans="1:56">
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="43">
         <v>17</v>
       </c>
@@ -7217,7 +7054,7 @@
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E18" s="10">
@@ -7240,23 +7077,23 @@
         <f t="shared" ref="I18:I54" si="9">STDEV($O18:$AB18)</f>
         <v>3.611702590800578</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="63">
         <f t="shared" si="4"/>
         <v>87.825000000000003</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="63">
         <f t="shared" si="5"/>
         <v>89.825000000000003</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="63">
         <f t="shared" si="8"/>
         <v>93.6</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="63">
         <f t="shared" si="6"/>
         <v>96.575000000000003</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="65">
         <f t="shared" si="7"/>
         <v>97.034999999999997</v>
       </c>
@@ -7315,9 +7152,8 @@
       <c r="AO18" s="12">
         <v>17568</v>
       </c>
-      <c r="AQ18" s="56"/>
-    </row>
-    <row r="19" spans="1:56">
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="43">
         <v>18</v>
       </c>
@@ -7327,7 +7163,7 @@
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E19" s="10">
@@ -7350,23 +7186,23 @@
         <f t="shared" si="9"/>
         <v>13.083848360176335</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="63">
         <f t="shared" si="4"/>
         <v>40.954999999999998</v>
       </c>
-      <c r="K19" s="72">
+      <c r="K19" s="63">
         <f t="shared" si="5"/>
         <v>53.125</v>
       </c>
-      <c r="L19" s="72">
+      <c r="L19" s="63">
         <f t="shared" si="8"/>
         <v>58.95</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="63">
         <f t="shared" si="6"/>
         <v>64.150000000000006</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="65">
         <f t="shared" si="7"/>
         <v>75.5</v>
       </c>
@@ -7425,9 +7261,8 @@
       <c r="AO19" s="12">
         <v>1152</v>
       </c>
-      <c r="AQ19" s="56"/>
-    </row>
-    <row r="20" spans="1:56">
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="43">
         <v>19</v>
       </c>
@@ -7437,7 +7272,7 @@
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E20" s="10">
@@ -7460,23 +7295,23 @@
         <f t="shared" si="9"/>
         <v>21.874809889283799</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="63">
         <f t="shared" si="4"/>
         <v>21.949999999999996</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="63">
         <f t="shared" si="5"/>
         <v>62.075000000000003</v>
       </c>
-      <c r="L20" s="72">
+      <c r="L20" s="63">
         <f t="shared" si="8"/>
         <v>69.5</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="63">
         <f t="shared" si="6"/>
         <v>75.375</v>
       </c>
-      <c r="N20" s="74">
+      <c r="N20" s="65">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
@@ -7535,9 +7370,8 @@
       <c r="AO20" s="12">
         <v>14409</v>
       </c>
-      <c r="AQ20" s="56"/>
-    </row>
-    <row r="21" spans="1:56">
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="43">
         <v>20</v>
       </c>
@@ -7547,7 +7381,7 @@
       <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E21" s="10">
@@ -7570,23 +7404,23 @@
         <f t="shared" si="9"/>
         <v>31.260363556272502</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="63">
         <f t="shared" si="4"/>
         <v>11.26</v>
       </c>
-      <c r="K21" s="72">
+      <c r="K21" s="63">
         <f t="shared" si="5"/>
         <v>22.875</v>
       </c>
-      <c r="L21" s="72">
+      <c r="L21" s="63">
         <f t="shared" si="8"/>
         <v>41.55</v>
       </c>
-      <c r="M21" s="72">
+      <c r="M21" s="63">
         <f t="shared" si="6"/>
         <v>78.074999999999989</v>
       </c>
-      <c r="N21" s="74">
+      <c r="N21" s="65">
         <f t="shared" si="7"/>
         <v>90.254999999999995</v>
       </c>
@@ -7645,9 +7479,8 @@
       <c r="AO21" s="12">
         <v>1298</v>
       </c>
-      <c r="AQ21" s="56"/>
-    </row>
-    <row r="22" spans="1:56">
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="43">
         <v>21</v>
       </c>
@@ -7657,7 +7490,7 @@
       <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="10">
@@ -7680,23 +7513,23 @@
         <f t="shared" si="9"/>
         <v>31.609872049551402</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="63">
         <f t="shared" si="4"/>
         <v>12.315</v>
       </c>
-      <c r="K22" s="72">
+      <c r="K22" s="63">
         <f t="shared" si="5"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="L22" s="72">
+      <c r="L22" s="63">
         <f t="shared" si="8"/>
         <v>60.55</v>
       </c>
-      <c r="M22" s="72">
+      <c r="M22" s="63">
         <f t="shared" si="6"/>
         <v>87.075000000000003</v>
       </c>
-      <c r="N22" s="74">
+      <c r="N22" s="65">
         <f t="shared" si="7"/>
         <v>95.31</v>
       </c>
@@ -7755,19 +7588,18 @@
       <c r="AO22" s="12">
         <v>17333</v>
       </c>
-      <c r="AQ22" s="56"/>
-    </row>
-    <row r="23" spans="1:56">
-      <c r="A23" s="91">
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" s="80">
         <v>22</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E23" s="10">
@@ -7790,23 +7622,23 @@
         <f t="shared" si="9"/>
         <v>5.5237151059254135</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="63">
         <f t="shared" si="4"/>
         <v>75.89</v>
       </c>
-      <c r="K23" s="72">
+      <c r="K23" s="63">
         <f t="shared" si="5"/>
         <v>79.625</v>
       </c>
-      <c r="L23" s="72">
+      <c r="L23" s="63">
         <f t="shared" si="8"/>
         <v>82.35</v>
       </c>
-      <c r="M23" s="72">
+      <c r="M23" s="63">
         <f t="shared" si="6"/>
         <v>84.725000000000009</v>
       </c>
-      <c r="N23" s="74">
+      <c r="N23" s="65">
         <f t="shared" si="7"/>
         <v>92.27000000000001</v>
       </c>
@@ -7865,19 +7697,18 @@
       <c r="AO23" s="12">
         <v>1498</v>
       </c>
-      <c r="AQ23" s="56"/>
-    </row>
-    <row r="24" spans="1:56">
-      <c r="A24" s="91">
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24" s="80">
         <v>23</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E24" s="10">
@@ -7900,23 +7731,23 @@
         <f t="shared" si="9"/>
         <v>5.364069514672769</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="63">
         <f t="shared" si="4"/>
         <v>80.08</v>
       </c>
-      <c r="K24" s="72">
+      <c r="K24" s="63">
         <f t="shared" si="5"/>
         <v>85.525000000000006</v>
       </c>
-      <c r="L24" s="72">
+      <c r="L24" s="63">
         <f t="shared" si="8"/>
         <v>87.1</v>
       </c>
-      <c r="M24" s="72">
+      <c r="M24" s="63">
         <f t="shared" si="6"/>
         <v>89.825000000000003</v>
       </c>
-      <c r="N24" s="74">
+      <c r="N24" s="65">
         <f t="shared" si="7"/>
         <v>95.57</v>
       </c>
@@ -7975,10 +7806,9 @@
       <c r="AO24" s="12">
         <v>15481</v>
       </c>
-      <c r="AQ24" s="56"/>
-    </row>
-    <row r="25" spans="1:56">
-      <c r="A25" s="58">
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25" s="56">
         <v>24</v>
       </c>
       <c r="B25" s="53" t="s">
@@ -7987,7 +7817,7 @@
       <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E25" s="10">
@@ -8010,23 +7840,23 @@
         <f t="shared" si="9"/>
         <v>10.851657087213118</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="63">
         <f t="shared" si="4"/>
         <v>48.994999999999997</v>
       </c>
-      <c r="K25" s="72">
+      <c r="K25" s="63">
         <f t="shared" si="5"/>
         <v>57.1</v>
       </c>
-      <c r="L25" s="72">
+      <c r="L25" s="63">
         <f t="shared" si="8"/>
         <v>61.8</v>
       </c>
-      <c r="M25" s="72">
+      <c r="M25" s="63">
         <f t="shared" si="6"/>
         <v>65.8</v>
       </c>
-      <c r="N25" s="74">
+      <c r="N25" s="65">
         <f t="shared" si="7"/>
         <v>81.66</v>
       </c>
@@ -8085,10 +7915,9 @@
       <c r="AO25" s="12">
         <v>1247</v>
       </c>
-      <c r="AQ25" s="56"/>
-    </row>
-    <row r="26" spans="1:56">
-      <c r="A26" s="58">
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26" s="56">
         <v>25</v>
       </c>
       <c r="B26" s="53" t="s">
@@ -8097,7 +7926,7 @@
       <c r="C26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E26" s="10">
@@ -8120,23 +7949,23 @@
         <f t="shared" si="9"/>
         <v>4.3924323032303576</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="63">
         <f t="shared" si="4"/>
         <v>73.35499999999999</v>
       </c>
-      <c r="K26" s="72">
+      <c r="K26" s="63">
         <f t="shared" si="5"/>
         <v>74.95</v>
       </c>
-      <c r="L26" s="72">
+      <c r="L26" s="63">
         <f t="shared" si="8"/>
         <v>76.900000000000006</v>
       </c>
-      <c r="M26" s="72">
+      <c r="M26" s="63">
         <f t="shared" si="6"/>
         <v>82.025000000000006</v>
       </c>
-      <c r="N26" s="74">
+      <c r="N26" s="65">
         <f t="shared" si="7"/>
         <v>84.77000000000001</v>
       </c>
@@ -8195,19 +8024,18 @@
       <c r="AO26" s="12">
         <v>15376</v>
       </c>
-      <c r="AQ26" s="56"/>
-    </row>
-    <row r="27" spans="1:56">
-      <c r="A27" s="91">
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27" s="80">
         <v>26</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E27" s="10">
@@ -8230,23 +8058,23 @@
         <f t="shared" si="9"/>
         <v>11.839580201200485</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="63">
         <f t="shared" si="4"/>
         <v>41.589999999999996</v>
       </c>
-      <c r="K27" s="72">
+      <c r="K27" s="63">
         <f t="shared" si="5"/>
         <v>53.475000000000001</v>
       </c>
-      <c r="L27" s="72">
+      <c r="L27" s="63">
         <f t="shared" si="8"/>
         <v>57.150000000000006</v>
       </c>
-      <c r="M27" s="72">
+      <c r="M27" s="63">
         <f t="shared" si="6"/>
         <v>65.625</v>
       </c>
-      <c r="N27" s="74">
+      <c r="N27" s="65">
         <f t="shared" si="7"/>
         <v>73.644999999999996</v>
       </c>
@@ -8305,19 +8133,18 @@
       <c r="AO27" s="12">
         <v>1237</v>
       </c>
-      <c r="AQ27" s="56"/>
-    </row>
-    <row r="28" spans="1:56" s="2" customFormat="1">
-      <c r="A28" s="92">
+    </row>
+    <row r="28" spans="1:42" s="2" customFormat="1">
+      <c r="A28" s="81">
         <v>27</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="70" t="s">
         <v>144</v>
       </c>
       <c r="E28" s="39">
@@ -8340,23 +8167,23 @@
         <f t="shared" si="9"/>
         <v>6.4858256271606693</v>
       </c>
-      <c r="J28" s="73">
+      <c r="J28" s="64">
         <f t="shared" si="4"/>
         <v>63.504999999999995</v>
       </c>
-      <c r="K28" s="73">
+      <c r="K28" s="64">
         <f t="shared" si="5"/>
         <v>69.125</v>
       </c>
-      <c r="L28" s="73">
+      <c r="L28" s="64">
         <f t="shared" si="8"/>
         <v>72.75</v>
       </c>
-      <c r="M28" s="73">
+      <c r="M28" s="64">
         <f t="shared" si="6"/>
         <v>77.3</v>
       </c>
-      <c r="N28" s="75">
+      <c r="N28" s="66">
         <f t="shared" si="7"/>
         <v>82.515000000000001</v>
       </c>
@@ -8415,11 +8242,8 @@
         <v>15288</v>
       </c>
       <c r="AP28" s="44"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="70"/>
-      <c r="BD28" s="44"/>
-    </row>
-    <row r="29" spans="1:56">
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="43">
         <v>28</v>
       </c>
@@ -8429,7 +8253,7 @@
       <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E29" s="10">
@@ -8452,23 +8276,23 @@
         <f t="shared" si="9"/>
         <v>2.9222526310298078</v>
       </c>
-      <c r="J29" s="72">
+      <c r="J29" s="63">
         <f t="shared" si="4"/>
         <v>19.614999999999998</v>
       </c>
-      <c r="K29" s="72">
+      <c r="K29" s="63">
         <f t="shared" si="5"/>
         <v>21.774999999999999</v>
       </c>
-      <c r="L29" s="72">
+      <c r="L29" s="63">
         <f t="shared" si="8"/>
         <v>23.799999999999997</v>
       </c>
-      <c r="M29" s="72">
+      <c r="M29" s="63">
         <f t="shared" si="6"/>
         <v>24.475000000000001</v>
       </c>
-      <c r="N29" s="74">
+      <c r="N29" s="65">
         <f t="shared" si="7"/>
         <v>27.4</v>
       </c>
@@ -8527,9 +8351,8 @@
       <c r="AO29" s="12">
         <v>445</v>
       </c>
-      <c r="AQ29" s="56"/>
-    </row>
-    <row r="30" spans="1:56" s="2" customFormat="1">
+    </row>
+    <row r="30" spans="1:42" s="2" customFormat="1">
       <c r="A30" s="44">
         <v>29</v>
       </c>
@@ -8539,7 +8362,7 @@
       <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="70" t="s">
         <v>144</v>
       </c>
       <c r="E30" s="39">
@@ -8562,23 +8385,23 @@
         <f t="shared" si="9"/>
         <v>2.4575964314305327</v>
       </c>
-      <c r="J30" s="73">
+      <c r="J30" s="64">
         <f t="shared" si="4"/>
         <v>13.555</v>
       </c>
-      <c r="K30" s="73">
+      <c r="K30" s="64">
         <f t="shared" si="5"/>
         <v>15.55</v>
       </c>
-      <c r="L30" s="73">
+      <c r="L30" s="64">
         <f t="shared" si="8"/>
         <v>17.149999999999999</v>
       </c>
-      <c r="M30" s="73">
+      <c r="M30" s="64">
         <f t="shared" si="6"/>
         <v>18.774999999999999</v>
       </c>
-      <c r="N30" s="75">
+      <c r="N30" s="66">
         <f t="shared" si="7"/>
         <v>20.7</v>
       </c>
@@ -8637,11 +8460,8 @@
         <v>3032</v>
       </c>
       <c r="AP30" s="44"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="70"/>
-      <c r="BD30" s="44"/>
-    </row>
-    <row r="31" spans="1:56" ht="14" customHeight="1">
+    </row>
+    <row r="31" spans="1:42" ht="14" customHeight="1">
       <c r="A31" s="43">
         <v>30</v>
       </c>
@@ -8651,7 +8471,7 @@
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E31" s="10">
@@ -8674,23 +8494,23 @@
         <f t="shared" si="9"/>
         <v>2.9784943463818232</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="63">
         <f t="shared" si="4"/>
         <v>22.89</v>
       </c>
-      <c r="K31" s="72">
+      <c r="K31" s="63">
         <f t="shared" si="5"/>
         <v>23.324999999999999</v>
       </c>
-      <c r="L31" s="72">
+      <c r="L31" s="63">
         <f t="shared" si="8"/>
         <v>25.25</v>
       </c>
-      <c r="M31" s="72">
+      <c r="M31" s="63">
         <f t="shared" si="6"/>
         <v>28.224999999999998</v>
       </c>
-      <c r="N31" s="74">
+      <c r="N31" s="65">
         <f t="shared" si="7"/>
         <v>30.475000000000001</v>
       </c>
@@ -8749,9 +8569,8 @@
       <c r="AO31" s="12">
         <v>367</v>
       </c>
-      <c r="AQ31" s="56"/>
-    </row>
-    <row r="32" spans="1:56">
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="43">
         <v>31</v>
       </c>
@@ -8761,7 +8580,7 @@
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E32" s="10">
@@ -8784,23 +8603,23 @@
         <f t="shared" si="9"/>
         <v>2.2217209446831867</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="63">
         <f t="shared" si="4"/>
         <v>54.14</v>
       </c>
-      <c r="K32" s="72">
+      <c r="K32" s="63">
         <f t="shared" si="5"/>
         <v>55.05</v>
       </c>
-      <c r="L32" s="72">
+      <c r="L32" s="63">
         <f t="shared" si="8"/>
         <v>55.8</v>
       </c>
-      <c r="M32" s="72">
+      <c r="M32" s="63">
         <f t="shared" si="6"/>
         <v>57.475000000000001</v>
       </c>
-      <c r="N32" s="74">
+      <c r="N32" s="65">
         <f t="shared" si="7"/>
         <v>60.51</v>
       </c>
@@ -8859,9 +8678,8 @@
       <c r="AO32" s="12">
         <v>9245</v>
       </c>
-      <c r="AQ32" s="56"/>
-    </row>
-    <row r="33" spans="1:56">
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="43">
         <v>32</v>
       </c>
@@ -8871,7 +8689,7 @@
       <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E33" s="10">
@@ -8894,23 +8712,23 @@
         <f t="shared" si="9"/>
         <v>3.5848889203751582</v>
       </c>
-      <c r="J33" s="72">
+      <c r="J33" s="63">
         <f t="shared" si="4"/>
         <v>74.48</v>
       </c>
-      <c r="K33" s="72">
+      <c r="K33" s="63">
         <f t="shared" si="5"/>
         <v>77.625</v>
       </c>
-      <c r="L33" s="72">
+      <c r="L33" s="63">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="M33" s="72">
+      <c r="M33" s="63">
         <f t="shared" si="6"/>
         <v>81.875</v>
       </c>
-      <c r="N33" s="74">
+      <c r="N33" s="65">
         <f t="shared" si="7"/>
         <v>84.320000000000007</v>
       </c>
@@ -8969,9 +8787,8 @@
       <c r="AO33" s="12">
         <v>1215</v>
       </c>
-      <c r="AQ33" s="56"/>
-    </row>
-    <row r="34" spans="1:56" s="2" customFormat="1">
+    </row>
+    <row r="34" spans="1:42" s="2" customFormat="1">
       <c r="A34" s="44">
         <v>33</v>
       </c>
@@ -8981,7 +8798,7 @@
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="70" t="s">
         <v>144</v>
       </c>
       <c r="E34" s="39">
@@ -9004,23 +8821,23 @@
         <f t="shared" si="9"/>
         <v>3.1027106192510403</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="64">
         <f t="shared" si="4"/>
         <v>69.7</v>
       </c>
-      <c r="K34" s="73">
+      <c r="K34" s="64">
         <f t="shared" si="5"/>
         <v>71.5</v>
       </c>
-      <c r="L34" s="73">
+      <c r="L34" s="64">
         <f t="shared" si="8"/>
         <v>73.55</v>
       </c>
-      <c r="M34" s="73">
+      <c r="M34" s="64">
         <f t="shared" si="6"/>
         <v>76.524999999999991</v>
       </c>
-      <c r="N34" s="75">
+      <c r="N34" s="66">
         <f t="shared" si="7"/>
         <v>77.89</v>
       </c>
@@ -9079,11 +8896,8 @@
         <v>12176</v>
       </c>
       <c r="AP34" s="44"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="70"/>
-      <c r="BD34" s="44"/>
-    </row>
-    <row r="35" spans="1:56" ht="14" customHeight="1">
+    </row>
+    <row r="35" spans="1:42" ht="14" customHeight="1">
       <c r="A35" s="43">
         <v>34</v>
       </c>
@@ -9093,7 +8907,7 @@
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="D35" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E35" s="10">
@@ -9116,23 +8930,23 @@
         <f t="shared" si="9"/>
         <v>5.1963639020181418</v>
       </c>
-      <c r="J35" s="72">
+      <c r="J35" s="63">
         <f t="shared" si="4"/>
         <v>29.560000000000002</v>
       </c>
-      <c r="K35" s="72">
+      <c r="K35" s="63">
         <f t="shared" si="5"/>
         <v>33.875</v>
       </c>
-      <c r="L35" s="72">
+      <c r="L35" s="63">
         <f t="shared" si="8"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="M35" s="72">
+      <c r="M35" s="63">
         <f t="shared" si="6"/>
         <v>39.475000000000001</v>
       </c>
-      <c r="N35" s="74">
+      <c r="N35" s="65">
         <f t="shared" si="7"/>
         <v>44.755000000000003</v>
       </c>
@@ -9191,9 +9005,8 @@
       <c r="AO35" s="12">
         <v>759</v>
       </c>
-      <c r="AQ35" s="56"/>
-    </row>
-    <row r="36" spans="1:56">
+    </row>
+    <row r="36" spans="1:42">
       <c r="A36" s="43">
         <v>35</v>
       </c>
@@ -9203,7 +9016,7 @@
       <c r="C36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="10">
@@ -9226,23 +9039,23 @@
         <f t="shared" si="9"/>
         <v>1.936931412493279</v>
       </c>
-      <c r="J36" s="72">
+      <c r="J36" s="63">
         <f t="shared" si="4"/>
         <v>11.955</v>
       </c>
-      <c r="K36" s="72">
+      <c r="K36" s="63">
         <f t="shared" si="5"/>
         <v>13.1</v>
       </c>
-      <c r="L36" s="72">
+      <c r="L36" s="63">
         <f t="shared" si="8"/>
         <v>14.55</v>
       </c>
-      <c r="M36" s="72">
+      <c r="M36" s="63">
         <f t="shared" si="6"/>
         <v>15.875</v>
       </c>
-      <c r="N36" s="74">
+      <c r="N36" s="65">
         <f t="shared" si="7"/>
         <v>17.39</v>
       </c>
@@ -9301,9 +9114,8 @@
       <c r="AO36" s="12">
         <v>2568</v>
       </c>
-      <c r="AQ36" s="56"/>
-    </row>
-    <row r="37" spans="1:56">
+    </row>
+    <row r="37" spans="1:42">
       <c r="A37" s="43">
         <v>36</v>
       </c>
@@ -9313,7 +9125,7 @@
       <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E37" s="10">
@@ -9336,23 +9148,23 @@
         <f t="shared" si="9"/>
         <v>3.0903607670188946</v>
       </c>
-      <c r="J37" s="72">
+      <c r="J37" s="63">
         <f t="shared" si="4"/>
         <v>25.114999999999998</v>
       </c>
-      <c r="K37" s="72">
+      <c r="K37" s="63">
         <f t="shared" si="5"/>
         <v>25.824999999999999</v>
       </c>
-      <c r="L37" s="72">
+      <c r="L37" s="63">
         <f t="shared" si="8"/>
         <v>29.4</v>
       </c>
-      <c r="M37" s="72">
+      <c r="M37" s="63">
         <f t="shared" si="6"/>
         <v>30.824999999999999</v>
       </c>
-      <c r="N37" s="74">
+      <c r="N37" s="65">
         <f t="shared" si="7"/>
         <v>33.585000000000001</v>
       </c>
@@ -9411,9 +9223,8 @@
       <c r="AO37" s="12">
         <v>419</v>
       </c>
-      <c r="AQ37" s="56"/>
-    </row>
-    <row r="38" spans="1:56" s="2" customFormat="1">
+    </row>
+    <row r="38" spans="1:42" s="2" customFormat="1">
       <c r="A38" s="44">
         <v>37</v>
       </c>
@@ -9423,7 +9234,7 @@
       <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="70" t="s">
         <v>144</v>
       </c>
       <c r="E38" s="39">
@@ -9446,23 +9257,23 @@
         <f t="shared" si="9"/>
         <v>2.1695191141847872</v>
       </c>
-      <c r="J38" s="73">
+      <c r="J38" s="64">
         <f t="shared" si="4"/>
         <v>18.049999999999997</v>
       </c>
-      <c r="K38" s="73">
+      <c r="K38" s="64">
         <f t="shared" si="5"/>
         <v>18.850000000000001</v>
       </c>
-      <c r="L38" s="73">
+      <c r="L38" s="64">
         <f t="shared" si="8"/>
         <v>19.850000000000001</v>
       </c>
-      <c r="M38" s="73">
+      <c r="M38" s="64">
         <f t="shared" si="6"/>
         <v>21.95</v>
       </c>
-      <c r="N38" s="75">
+      <c r="N38" s="66">
         <f t="shared" si="7"/>
         <v>23.695</v>
       </c>
@@ -9521,11 +9332,8 @@
         <v>3399</v>
       </c>
       <c r="AP38" s="44"/>
-      <c r="AQ38" s="57"/>
-      <c r="AR38" s="70"/>
-      <c r="BD38" s="44"/>
-    </row>
-    <row r="39" spans="1:56" ht="14" customHeight="1">
+    </row>
+    <row r="39" spans="1:42" ht="14" customHeight="1">
       <c r="A39" s="43">
         <v>38</v>
       </c>
@@ -9535,7 +9343,7 @@
       <c r="C39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E39" s="10">
@@ -9558,23 +9366,23 @@
         <f t="shared" si="9"/>
         <v>0.33191088437234939</v>
       </c>
-      <c r="J39" s="72">
+      <c r="J39" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K39" s="72">
+      <c r="K39" s="63">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="L39" s="72">
+      <c r="L39" s="63">
         <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
-      <c r="M39" s="72">
+      <c r="M39" s="63">
         <f t="shared" si="6"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="N39" s="74">
+      <c r="N39" s="65">
         <f t="shared" si="7"/>
         <v>0.87499999999999978</v>
       </c>
@@ -9633,9 +9441,8 @@
       <c r="AO39" s="12">
         <v>10</v>
       </c>
-      <c r="AQ39" s="56"/>
-    </row>
-    <row r="40" spans="1:56">
+    </row>
+    <row r="40" spans="1:42">
       <c r="A40" s="43">
         <v>39</v>
       </c>
@@ -9645,7 +9452,7 @@
       <c r="C40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E40" s="10">
@@ -9668,23 +9475,23 @@
         <f t="shared" si="9"/>
         <v>0.19158104473902615</v>
       </c>
-      <c r="J40" s="72">
+      <c r="J40" s="63">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="K40" s="72">
+      <c r="K40" s="63">
         <f t="shared" si="5"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="L40" s="72">
+      <c r="L40" s="63">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="M40" s="72">
+      <c r="M40" s="63">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="N40" s="74">
+      <c r="N40" s="65">
         <f t="shared" si="7"/>
         <v>0.57499999999999984</v>
       </c>
@@ -9743,9 +9550,8 @@
       <c r="AO40" s="12">
         <v>52</v>
       </c>
-      <c r="AQ40" s="56"/>
-    </row>
-    <row r="41" spans="1:56">
+    </row>
+    <row r="41" spans="1:42">
       <c r="A41" s="43">
         <v>40</v>
       </c>
@@ -9755,7 +9561,7 @@
       <c r="C41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E41" s="10">
@@ -9778,23 +9584,23 @@
         <f t="shared" si="9"/>
         <v>0.50448537590845499</v>
       </c>
-      <c r="J41" s="72">
+      <c r="J41" s="63">
         <f t="shared" si="4"/>
         <v>0.25999999999999995</v>
       </c>
-      <c r="K41" s="72">
+      <c r="K41" s="63">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="L41" s="72">
+      <c r="L41" s="63">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="M41" s="72">
+      <c r="M41" s="63">
         <f t="shared" si="6"/>
         <v>1.4750000000000001</v>
       </c>
-      <c r="N41" s="74">
+      <c r="N41" s="65">
         <f t="shared" si="7"/>
         <v>1.7</v>
       </c>
@@ -9853,9 +9659,8 @@
       <c r="AO41" s="12">
         <v>32</v>
       </c>
-      <c r="AQ41" s="56"/>
-    </row>
-    <row r="42" spans="1:56">
+    </row>
+    <row r="42" spans="1:42">
       <c r="A42" s="43">
         <v>41</v>
       </c>
@@ -9865,7 +9670,7 @@
       <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E42" s="10">
@@ -9888,23 +9693,23 @@
         <f t="shared" si="9"/>
         <v>0.14675987714106875</v>
       </c>
-      <c r="J42" s="72">
+      <c r="J42" s="63">
         <f t="shared" si="4"/>
         <v>0.16499999999999998</v>
       </c>
-      <c r="K42" s="72">
+      <c r="K42" s="63">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="L42" s="72">
+      <c r="L42" s="63">
         <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
-      <c r="M42" s="72">
+      <c r="M42" s="63">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="N42" s="74">
+      <c r="N42" s="65">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
@@ -9963,9 +9768,8 @@
       <c r="AO42" s="12">
         <v>111</v>
       </c>
-      <c r="AQ42" s="56"/>
-    </row>
-    <row r="43" spans="1:56">
+    </row>
+    <row r="43" spans="1:42">
       <c r="A43" s="43">
         <v>42</v>
       </c>
@@ -9975,7 +9779,7 @@
       <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="80" t="s">
+      <c r="D43" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E43" s="10">
@@ -9998,23 +9802,23 @@
         <f t="shared" si="9"/>
         <v>6.9131662884577416</v>
       </c>
-      <c r="J43" s="72">
+      <c r="J43" s="63">
         <f t="shared" si="4"/>
         <v>49.895000000000003</v>
       </c>
-      <c r="K43" s="72">
+      <c r="K43" s="63">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="L43" s="72">
+      <c r="L43" s="63">
         <f t="shared" si="8"/>
         <v>56.650000000000006</v>
       </c>
-      <c r="M43" s="72">
+      <c r="M43" s="63">
         <f t="shared" si="6"/>
         <v>61.224999999999994</v>
       </c>
-      <c r="N43" s="74">
+      <c r="N43" s="65">
         <f t="shared" si="7"/>
         <v>70.73</v>
       </c>
@@ -10073,9 +9877,8 @@
       <c r="AO43" s="12">
         <v>722</v>
       </c>
-      <c r="AQ43" s="56"/>
-    </row>
-    <row r="44" spans="1:56" s="2" customFormat="1">
+    </row>
+    <row r="44" spans="1:42" s="2" customFormat="1">
       <c r="A44" s="44">
         <v>43</v>
       </c>
@@ -10085,7 +9888,7 @@
       <c r="C44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="70" t="s">
         <v>144</v>
       </c>
       <c r="E44" s="39">
@@ -10108,23 +9911,23 @@
         <f t="shared" si="9"/>
         <v>7.0148038124720609</v>
       </c>
-      <c r="J44" s="73">
+      <c r="J44" s="64">
         <f t="shared" si="4"/>
         <v>21.984999999999999</v>
       </c>
-      <c r="K44" s="73">
+      <c r="K44" s="64">
         <f t="shared" si="5"/>
         <v>23.25</v>
       </c>
-      <c r="L44" s="73">
+      <c r="L44" s="64">
         <f t="shared" si="8"/>
         <v>26.05</v>
       </c>
-      <c r="M44" s="73">
+      <c r="M44" s="64">
         <f t="shared" si="6"/>
         <v>30.575000000000003</v>
       </c>
-      <c r="N44" s="75">
+      <c r="N44" s="66">
         <f t="shared" si="7"/>
         <v>40.524999999999999</v>
       </c>
@@ -10183,11 +9986,8 @@
         <v>3600</v>
       </c>
       <c r="AP44" s="44"/>
-      <c r="AQ44" s="57"/>
-      <c r="AR44" s="70"/>
-      <c r="BD44" s="44"/>
-    </row>
-    <row r="45" spans="1:56" ht="14" customHeight="1">
+    </row>
+    <row r="45" spans="1:42" ht="14" customHeight="1">
       <c r="A45" s="43">
         <v>44</v>
       </c>
@@ -10197,7 +9997,7 @@
       <c r="C45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E45" s="10">
@@ -10220,23 +10020,23 @@
         <f t="shared" si="9"/>
         <v>0.53328754382190735</v>
       </c>
-      <c r="J45" s="72">
+      <c r="J45" s="63">
         <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
-      <c r="K45" s="72">
+      <c r="K45" s="63">
         <f t="shared" si="5"/>
         <v>3.3249999999999997</v>
       </c>
-      <c r="L45" s="72">
+      <c r="L45" s="63">
         <f t="shared" si="8"/>
         <v>3.7</v>
       </c>
-      <c r="M45" s="72">
+      <c r="M45" s="63">
         <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
-      <c r="N45" s="74">
+      <c r="N45" s="65">
         <f t="shared" si="7"/>
         <v>4.5750000000000002</v>
       </c>
@@ -10295,9 +10095,8 @@
       <c r="AO45" s="12">
         <v>69</v>
       </c>
-      <c r="AQ45" s="56"/>
-    </row>
-    <row r="46" spans="1:56">
+    </row>
+    <row r="46" spans="1:42">
       <c r="A46" s="43">
         <v>45</v>
       </c>
@@ -10307,7 +10106,7 @@
       <c r="C46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="80" t="s">
+      <c r="D46" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E46" s="10">
@@ -10330,23 +10129,23 @@
         <f t="shared" si="9"/>
         <v>1.1174932701323876</v>
       </c>
-      <c r="J46" s="72">
+      <c r="J46" s="63">
         <f t="shared" si="4"/>
         <v>7.8649999999999993</v>
       </c>
-      <c r="K46" s="72">
+      <c r="K46" s="63">
         <f t="shared" si="5"/>
         <v>9.7249999999999996</v>
       </c>
-      <c r="L46" s="72">
+      <c r="L46" s="63">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="M46" s="72">
+      <c r="M46" s="63">
         <f t="shared" si="6"/>
         <v>10.35</v>
       </c>
-      <c r="N46" s="74">
+      <c r="N46" s="65">
         <f t="shared" si="7"/>
         <v>10.68</v>
       </c>
@@ -10405,9 +10204,8 @@
       <c r="AO46" s="12">
         <v>2023</v>
       </c>
-      <c r="AQ46" s="56"/>
-    </row>
-    <row r="47" spans="1:56">
+    </row>
+    <row r="47" spans="1:42">
       <c r="A47" s="43">
         <v>46</v>
       </c>
@@ -10417,7 +10215,7 @@
       <c r="C47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="80" t="s">
+      <c r="D47" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E47" s="10">
@@ -10440,23 +10238,23 @@
         <f t="shared" si="9"/>
         <v>0.72293662421913796</v>
       </c>
-      <c r="J47" s="72">
+      <c r="J47" s="63">
         <f t="shared" si="4"/>
         <v>0.99500000000000011</v>
       </c>
-      <c r="K47" s="72">
+      <c r="K47" s="63">
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="L47" s="72">
+      <c r="L47" s="63">
         <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
-      <c r="M47" s="72">
+      <c r="M47" s="63">
         <f t="shared" si="6"/>
         <v>2.6750000000000003</v>
       </c>
-      <c r="N47" s="74">
+      <c r="N47" s="65">
         <f t="shared" si="7"/>
         <v>3.21</v>
       </c>
@@ -10515,9 +10313,8 @@
       <c r="AO47" s="12">
         <v>51</v>
       </c>
-      <c r="AQ47" s="56"/>
-    </row>
-    <row r="48" spans="1:56">
+    </row>
+    <row r="48" spans="1:42">
       <c r="A48" s="43">
         <v>47</v>
       </c>
@@ -10527,7 +10324,7 @@
       <c r="C48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E48" s="10">
@@ -10550,23 +10347,23 @@
         <f t="shared" si="9"/>
         <v>1.0064899294190521</v>
       </c>
-      <c r="J48" s="72">
+      <c r="J48" s="63">
         <f t="shared" si="4"/>
         <v>4.9749999999999996</v>
       </c>
-      <c r="K48" s="72">
+      <c r="K48" s="63">
         <f t="shared" si="5"/>
         <v>6.125</v>
       </c>
-      <c r="L48" s="72">
+      <c r="L48" s="63">
         <f t="shared" si="8"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="M48" s="72">
+      <c r="M48" s="63">
         <f t="shared" si="6"/>
         <v>7.4</v>
       </c>
-      <c r="N48" s="74">
+      <c r="N48" s="65">
         <f t="shared" si="7"/>
         <v>7.6349999999999998</v>
       </c>
@@ -10625,9 +10422,8 @@
       <c r="AO48" s="12">
         <v>1267</v>
       </c>
-      <c r="AQ48" s="56"/>
-    </row>
-    <row r="49" spans="1:56">
+    </row>
+    <row r="49" spans="1:42">
       <c r="A49" s="43">
         <v>48</v>
       </c>
@@ -10637,7 +10433,7 @@
       <c r="C49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="80" t="s">
+      <c r="D49" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E49" s="10">
@@ -10660,23 +10456,23 @@
         <f t="shared" si="9"/>
         <v>0.53292681393507235</v>
       </c>
-      <c r="J49" s="72">
+      <c r="J49" s="63">
         <f t="shared" si="4"/>
         <v>0.99500000000000011</v>
       </c>
-      <c r="K49" s="72">
+      <c r="K49" s="63">
         <f t="shared" si="5"/>
         <v>1.675</v>
       </c>
-      <c r="L49" s="72">
+      <c r="L49" s="63">
         <f t="shared" si="8"/>
         <v>2.1</v>
       </c>
-      <c r="M49" s="72">
+      <c r="M49" s="63">
         <f t="shared" si="6"/>
         <v>2.375</v>
       </c>
-      <c r="N49" s="74">
+      <c r="N49" s="65">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
@@ -10735,9 +10531,8 @@
       <c r="AO49" s="12">
         <v>38</v>
       </c>
-      <c r="AQ49" s="56"/>
-    </row>
-    <row r="50" spans="1:56">
+    </row>
+    <row r="50" spans="1:42">
       <c r="A50" s="43">
         <v>49</v>
       </c>
@@ -10747,7 +10542,7 @@
       <c r="C50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="80" t="s">
+      <c r="D50" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E50" s="10">
@@ -10770,23 +10565,23 @@
         <f t="shared" si="9"/>
         <v>0.81675449927619359</v>
       </c>
-      <c r="J50" s="72">
+      <c r="J50" s="63">
         <f t="shared" si="4"/>
         <v>3.665</v>
       </c>
-      <c r="K50" s="72">
+      <c r="K50" s="63">
         <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="L50" s="72">
+      <c r="L50" s="63">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M50" s="72">
+      <c r="M50" s="63">
         <f t="shared" si="6"/>
         <v>5.55</v>
       </c>
-      <c r="N50" s="74">
+      <c r="N50" s="65">
         <f t="shared" si="7"/>
         <v>6.0350000000000001</v>
       </c>
@@ -10845,9 +10640,8 @@
       <c r="AO50" s="12">
         <v>1068</v>
       </c>
-      <c r="AQ50" s="56"/>
-    </row>
-    <row r="51" spans="1:56">
+    </row>
+    <row r="51" spans="1:42">
       <c r="A51" s="43">
         <v>50</v>
       </c>
@@ -10857,7 +10651,7 @@
       <c r="C51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E51" s="10">
@@ -10880,23 +10674,23 @@
         <f t="shared" si="9"/>
         <v>3.3110537481407532</v>
       </c>
-      <c r="J51" s="72">
+      <c r="J51" s="63">
         <f t="shared" si="4"/>
         <v>0.69500000000000006</v>
       </c>
-      <c r="K51" s="72">
+      <c r="K51" s="63">
         <f t="shared" si="5"/>
         <v>3.1749999999999998</v>
       </c>
-      <c r="L51" s="72">
+      <c r="L51" s="63">
         <f t="shared" si="8"/>
         <v>5.75</v>
       </c>
-      <c r="M51" s="72">
+      <c r="M51" s="63">
         <f t="shared" si="6"/>
         <v>7.5750000000000002</v>
       </c>
-      <c r="N51" s="74">
+      <c r="N51" s="65">
         <f t="shared" si="7"/>
         <v>10.7</v>
       </c>
@@ -10955,9 +10749,8 @@
       <c r="AO51" s="12">
         <v>117</v>
       </c>
-      <c r="AQ51" s="56"/>
-    </row>
-    <row r="52" spans="1:56">
+    </row>
+    <row r="52" spans="1:42">
       <c r="A52" s="43">
         <v>51</v>
       </c>
@@ -10967,7 +10760,7 @@
       <c r="C52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="80" t="s">
+      <c r="D52" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E52" s="10">
@@ -10990,23 +10783,23 @@
         <f t="shared" si="9"/>
         <v>1.9795798199962196</v>
       </c>
-      <c r="J52" s="72">
+      <c r="J52" s="63">
         <f t="shared" si="4"/>
         <v>1.0149999999999999</v>
       </c>
-      <c r="K52" s="72">
+      <c r="K52" s="63">
         <f t="shared" si="5"/>
         <v>1.575</v>
       </c>
-      <c r="L52" s="72">
+      <c r="L52" s="63">
         <f t="shared" si="8"/>
         <v>2.15</v>
       </c>
-      <c r="M52" s="72">
+      <c r="M52" s="63">
         <f t="shared" si="6"/>
         <v>4.1749999999999998</v>
       </c>
-      <c r="N52" s="74">
+      <c r="N52" s="65">
         <f t="shared" si="7"/>
         <v>6.7050000000000001</v>
       </c>
@@ -11065,9 +10858,8 @@
       <c r="AO52" s="12">
         <v>550</v>
       </c>
-      <c r="AQ52" s="56"/>
-    </row>
-    <row r="53" spans="1:56">
+    </row>
+    <row r="53" spans="1:42">
       <c r="A53" s="43">
         <v>52</v>
       </c>
@@ -11077,7 +10869,7 @@
       <c r="C53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="80" t="s">
+      <c r="D53" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E53" s="10">
@@ -11100,23 +10892,23 @@
         <f t="shared" si="9"/>
         <v>0.42329165379891948</v>
       </c>
-      <c r="J53" s="72">
+      <c r="J53" s="63">
         <f t="shared" si="4"/>
         <v>0.42999999999999994</v>
       </c>
-      <c r="K53" s="72">
+      <c r="K53" s="63">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="L53" s="72">
+      <c r="L53" s="63">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
-      <c r="M53" s="72">
+      <c r="M53" s="63">
         <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N53" s="74">
+      <c r="N53" s="65">
         <f t="shared" si="7"/>
         <v>1.7</v>
       </c>
@@ -11175,9 +10967,8 @@
       <c r="AO53" s="12">
         <v>20</v>
       </c>
-      <c r="AQ53" s="56"/>
-    </row>
-    <row r="54" spans="1:56" s="2" customFormat="1">
+    </row>
+    <row r="54" spans="1:42" s="2" customFormat="1">
       <c r="A54" s="44">
         <v>53</v>
       </c>
@@ -11187,7 +10978,7 @@
       <c r="C54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="81" t="s">
+      <c r="D54" s="70" t="s">
         <v>144</v>
       </c>
       <c r="E54" s="39">
@@ -11210,23 +11001,23 @@
         <f t="shared" si="9"/>
         <v>0.16374732612530429</v>
       </c>
-      <c r="J54" s="73">
+      <c r="J54" s="64">
         <f t="shared" si="4"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="K54" s="73">
+      <c r="K54" s="64">
         <f t="shared" si="5"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="L54" s="73">
+      <c r="L54" s="64">
         <f t="shared" si="8"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M54" s="73">
+      <c r="M54" s="64">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="N54" s="75">
+      <c r="N54" s="66">
         <f t="shared" si="7"/>
         <v>0.73499999999999999</v>
       </c>
@@ -11285,9 +11076,6 @@
         <v>121</v>
       </c>
       <c r="AP54" s="44"/>
-      <c r="AQ54" s="57"/>
-      <c r="AR54" s="70"/>
-      <c r="BD54" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
